--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7580209577136393</v>
+        <v>0.7580209577136416</v>
       </c>
       <c r="D2">
-        <v>0.7692137206877729</v>
+        <v>0.7692137206877747</v>
       </c>
       <c r="E2">
-        <v>0.7916624487156598</v>
+        <v>0.7916624487156617</v>
       </c>
       <c r="F2">
-        <v>0.7469531560790332</v>
+        <v>0.7469531560790351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.790988386055982</v>
+        <v>0.7909883860559838</v>
       </c>
       <c r="K2">
-        <v>0.7852107629412459</v>
+        <v>0.7852107629412477</v>
       </c>
       <c r="L2">
-        <v>0.8070606783295663</v>
+        <v>0.8070606783295681</v>
       </c>
       <c r="M2">
-        <v>0.7635930104117051</v>
+        <v>0.763593010411707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8160421155519066</v>
+        <v>0.8160421155519083</v>
       </c>
       <c r="D3">
-        <v>0.8254749310120111</v>
+        <v>0.8254749310120126</v>
       </c>
       <c r="E3">
-        <v>0.8420759771705308</v>
+        <v>0.842075977170532</v>
       </c>
       <c r="F3">
-        <v>0.8088255494507941</v>
+        <v>0.8088255494507958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8432097305765928</v>
+        <v>0.843209730576594</v>
       </c>
       <c r="K3">
-        <v>0.8389650006553154</v>
+        <v>0.8389650006553171</v>
       </c>
       <c r="L3">
-        <v>0.8552272688799798</v>
+        <v>0.855227268879981</v>
       </c>
       <c r="M3">
-        <v>0.8226739761340831</v>
+        <v>0.8226739761340849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8430800950372055</v>
+        <v>0.8430800950372099</v>
       </c>
       <c r="D4">
-        <v>0.8517526578885615</v>
+        <v>0.8517526578885659</v>
       </c>
       <c r="E4">
-        <v>0.8656910978332122</v>
+        <v>0.8656910978332165</v>
       </c>
       <c r="F4">
-        <v>0.8376297129462912</v>
+        <v>0.8376297129462955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8675730992007292</v>
+        <v>0.8675730992007336</v>
       </c>
       <c r="K4">
-        <v>0.8640446938699465</v>
+        <v>0.8640446938699509</v>
       </c>
       <c r="L4">
-        <v>0.8777354867546249</v>
+        <v>0.877735486754629</v>
       </c>
       <c r="M4">
-        <v>0.8501836647512682</v>
+        <v>0.8501836647512726</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8531172170646832</v>
+        <v>0.8531172170646802</v>
       </c>
       <c r="D5">
-        <v>0.8615160427779137</v>
+        <v>0.8615160427779106</v>
       </c>
       <c r="E5">
-        <v>0.8744729304826393</v>
+        <v>0.874472930482637</v>
       </c>
       <c r="F5">
-        <v>0.8483216060542776</v>
+        <v>0.8483216060542742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8766184936746311</v>
+        <v>0.8766184936746283</v>
       </c>
       <c r="K5">
-        <v>0.8733571054071536</v>
+        <v>0.8733571054071508</v>
       </c>
       <c r="L5">
-        <v>0.8860959604277867</v>
+        <v>0.8860959604277844</v>
       </c>
       <c r="M5">
-        <v>0.8603935854353383</v>
+        <v>0.860393585435335</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8547405910248342</v>
+        <v>0.8547405910248361</v>
       </c>
       <c r="D6">
-        <v>0.8630955527814826</v>
+        <v>0.8630955527814844</v>
       </c>
       <c r="E6">
-        <v>0.8758939693596176</v>
+        <v>0.8758939693596194</v>
       </c>
       <c r="F6">
-        <v>0.8500509103936994</v>
+        <v>0.8500509103937012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8780814535430777</v>
+        <v>0.8780814535430795</v>
       </c>
       <c r="K6">
-        <v>0.8748633252128961</v>
+        <v>0.8748633252128979</v>
       </c>
       <c r="L6">
-        <v>0.8874482958867643</v>
+        <v>0.887448295886766</v>
       </c>
       <c r="M6">
-        <v>0.8620448126853716</v>
+        <v>0.8620448126853737</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.843218647726822</v>
+        <v>0.8432186477268178</v>
       </c>
       <c r="D7">
-        <v>0.8518874017724937</v>
+        <v>0.8518874017724897</v>
       </c>
       <c r="E7">
-        <v>0.8658122704398709</v>
+        <v>0.8658122704398671</v>
       </c>
       <c r="F7">
-        <v>0.8377773035620869</v>
+        <v>0.837777303562083</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8676979615329068</v>
+        <v>0.867697961532903</v>
       </c>
       <c r="K7">
-        <v>0.8641732371804726</v>
+        <v>0.8641732371804686</v>
       </c>
       <c r="L7">
-        <v>0.8778508825273715</v>
+        <v>0.877850882527368</v>
       </c>
       <c r="M7">
-        <v>0.8503246100934289</v>
+        <v>0.8503246100934247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D8">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E8">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F8">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K8">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L8">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M8">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D9">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E9">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F9">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K9">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L9">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M9">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D10">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E10">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F10">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K10">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L10">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M10">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D11">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E11">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F11">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K11">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L11">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M11">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D12">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E12">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F12">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K12">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L12">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M12">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D13">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E13">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F13">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K13">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L13">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M13">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D14">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E14">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F14">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K14">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L14">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M14">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D15">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E15">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F15">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K15">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L15">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M15">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D16">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E16">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F16">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K16">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L16">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M16">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D17">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E17">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F17">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K17">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L17">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M17">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D18">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E18">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F18">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K18">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L18">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M18">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D19">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E19">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F19">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K19">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L19">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M19">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D20">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E20">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F20">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K20">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L20">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M20">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D21">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E21">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F21">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K21">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L21">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M21">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D22">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E22">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F22">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K22">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L22">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M22">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D23">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E23">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F23">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K23">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L23">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M23">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D24">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E24">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F24">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K24">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L24">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M24">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.781124917259174</v>
+        <v>0.7811249172591791</v>
       </c>
       <c r="D25">
-        <v>0.7915940122044399</v>
+        <v>0.7915940122044453</v>
       </c>
       <c r="E25">
-        <v>0.8116876956256237</v>
+        <v>0.8116876956256284</v>
       </c>
       <c r="F25">
-        <v>0.7716062053725675</v>
+        <v>0.7716062053725732</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8117682988667746</v>
+        <v>0.8117682988667795</v>
       </c>
       <c r="K25">
-        <v>0.8066014243629354</v>
+        <v>0.8066014243629405</v>
       </c>
       <c r="L25">
-        <v>0.8262113966887683</v>
+        <v>0.8262113966887731</v>
       </c>
       <c r="M25">
-        <v>0.7871287826652207</v>
+        <v>0.7871287826652261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7580209577136416</v>
+        <v>0.7580209577136393</v>
       </c>
       <c r="D2">
-        <v>0.7692137206877747</v>
+        <v>0.7692137206877729</v>
       </c>
       <c r="E2">
-        <v>0.7916624487156617</v>
+        <v>0.7916624487156598</v>
       </c>
       <c r="F2">
-        <v>0.7469531560790351</v>
+        <v>0.7469531560790332</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7909883860559838</v>
+        <v>0.790988386055982</v>
       </c>
       <c r="K2">
-        <v>0.7852107629412477</v>
+        <v>0.7852107629412459</v>
       </c>
       <c r="L2">
-        <v>0.8070606783295681</v>
+        <v>0.8070606783295663</v>
       </c>
       <c r="M2">
-        <v>0.763593010411707</v>
+        <v>0.7635930104117051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8160421155519083</v>
+        <v>0.8160421155519066</v>
       </c>
       <c r="D3">
-        <v>0.8254749310120126</v>
+        <v>0.8254749310120111</v>
       </c>
       <c r="E3">
-        <v>0.842075977170532</v>
+        <v>0.8420759771705308</v>
       </c>
       <c r="F3">
-        <v>0.8088255494507958</v>
+        <v>0.8088255494507941</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.843209730576594</v>
+        <v>0.8432097305765928</v>
       </c>
       <c r="K3">
-        <v>0.8389650006553171</v>
+        <v>0.8389650006553154</v>
       </c>
       <c r="L3">
-        <v>0.855227268879981</v>
+        <v>0.8552272688799798</v>
       </c>
       <c r="M3">
-        <v>0.8226739761340849</v>
+        <v>0.8226739761340831</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8430800950372099</v>
+        <v>0.8430800950372055</v>
       </c>
       <c r="D4">
-        <v>0.8517526578885659</v>
+        <v>0.8517526578885615</v>
       </c>
       <c r="E4">
-        <v>0.8656910978332165</v>
+        <v>0.8656910978332122</v>
       </c>
       <c r="F4">
-        <v>0.8376297129462955</v>
+        <v>0.8376297129462912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8675730992007336</v>
+        <v>0.8675730992007292</v>
       </c>
       <c r="K4">
-        <v>0.8640446938699509</v>
+        <v>0.8640446938699465</v>
       </c>
       <c r="L4">
-        <v>0.877735486754629</v>
+        <v>0.8777354867546249</v>
       </c>
       <c r="M4">
-        <v>0.8501836647512726</v>
+        <v>0.8501836647512682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8531172170646802</v>
+        <v>0.8531172170646832</v>
       </c>
       <c r="D5">
-        <v>0.8615160427779106</v>
+        <v>0.8615160427779137</v>
       </c>
       <c r="E5">
-        <v>0.874472930482637</v>
+        <v>0.8744729304826393</v>
       </c>
       <c r="F5">
-        <v>0.8483216060542742</v>
+        <v>0.8483216060542776</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8766184936746283</v>
+        <v>0.8766184936746311</v>
       </c>
       <c r="K5">
-        <v>0.8733571054071508</v>
+        <v>0.8733571054071536</v>
       </c>
       <c r="L5">
-        <v>0.8860959604277844</v>
+        <v>0.8860959604277867</v>
       </c>
       <c r="M5">
-        <v>0.860393585435335</v>
+        <v>0.8603935854353383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8547405910248361</v>
+        <v>0.8547405910248342</v>
       </c>
       <c r="D6">
-        <v>0.8630955527814844</v>
+        <v>0.8630955527814826</v>
       </c>
       <c r="E6">
-        <v>0.8758939693596194</v>
+        <v>0.8758939693596176</v>
       </c>
       <c r="F6">
-        <v>0.8500509103937012</v>
+        <v>0.8500509103936994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8780814535430795</v>
+        <v>0.8780814535430777</v>
       </c>
       <c r="K6">
-        <v>0.8748633252128979</v>
+        <v>0.8748633252128961</v>
       </c>
       <c r="L6">
-        <v>0.887448295886766</v>
+        <v>0.8874482958867643</v>
       </c>
       <c r="M6">
-        <v>0.8620448126853737</v>
+        <v>0.8620448126853716</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8432186477268178</v>
+        <v>0.843218647726822</v>
       </c>
       <c r="D7">
-        <v>0.8518874017724897</v>
+        <v>0.8518874017724937</v>
       </c>
       <c r="E7">
-        <v>0.8658122704398671</v>
+        <v>0.8658122704398709</v>
       </c>
       <c r="F7">
-        <v>0.837777303562083</v>
+        <v>0.8377773035620869</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.867697961532903</v>
+        <v>0.8676979615329068</v>
       </c>
       <c r="K7">
-        <v>0.8641732371804686</v>
+        <v>0.8641732371804726</v>
       </c>
       <c r="L7">
-        <v>0.877850882527368</v>
+        <v>0.8778508825273715</v>
       </c>
       <c r="M7">
-        <v>0.8503246100934247</v>
+        <v>0.8503246100934289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D8">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E8">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F8">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K8">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L8">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M8">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D9">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E9">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F9">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K9">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L9">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M9">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D10">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E10">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F10">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K10">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L10">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M10">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D11">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E11">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F11">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K11">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L11">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M11">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D12">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E12">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F12">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K12">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L12">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M12">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D13">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E13">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F13">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K13">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L13">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M13">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D14">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E14">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F14">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K14">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L14">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M14">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D15">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E15">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F15">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K15">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L15">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M15">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D16">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E16">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F16">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K16">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L16">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M16">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D17">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E17">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F17">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K17">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L17">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M17">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D18">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E18">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F18">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K18">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L18">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M18">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D19">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E19">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F19">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K19">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L19">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M19">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D20">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E20">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F20">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K20">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L20">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M20">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D21">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E21">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F21">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K21">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L21">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M21">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D22">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E22">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F22">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K22">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L22">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M22">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D23">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E23">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F23">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K23">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L23">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M23">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D24">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E24">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F24">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K24">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L24">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M24">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7811249172591791</v>
+        <v>0.781124917259174</v>
       </c>
       <c r="D25">
-        <v>0.7915940122044453</v>
+        <v>0.7915940122044399</v>
       </c>
       <c r="E25">
-        <v>0.8116876956256284</v>
+        <v>0.8116876956256237</v>
       </c>
       <c r="F25">
-        <v>0.7716062053725732</v>
+        <v>0.7716062053725675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8117682988667795</v>
+        <v>0.8117682988667746</v>
       </c>
       <c r="K25">
-        <v>0.8066014243629405</v>
+        <v>0.8066014243629354</v>
       </c>
       <c r="L25">
-        <v>0.8262113966887731</v>
+        <v>0.8262113966887683</v>
       </c>
       <c r="M25">
-        <v>0.7871287826652261</v>
+        <v>0.7871287826652207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7580209577136393</v>
+        <v>0.7591556480639277</v>
       </c>
       <c r="D2">
-        <v>0.7692137206877729</v>
+        <v>0.7703250209417546</v>
       </c>
       <c r="E2">
-        <v>0.7916624487156598</v>
+        <v>0.7926573413577923</v>
       </c>
       <c r="F2">
-        <v>0.7469531560790332</v>
+        <v>0.7481418602213037</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.790988386055982</v>
+        <v>0.7920483083612156</v>
       </c>
       <c r="K2">
-        <v>0.7852107629412459</v>
+        <v>0.7862912992460021</v>
       </c>
       <c r="L2">
-        <v>0.8070606783295663</v>
+        <v>0.8080300932135923</v>
       </c>
       <c r="M2">
-        <v>0.7635930104117051</v>
+        <v>0.7647460578967256</v>
+      </c>
+      <c r="N2">
+        <v>0.849156035099581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8160421155519066</v>
+        <v>0.8166639340723802</v>
       </c>
       <c r="D3">
-        <v>0.8254749310120111</v>
+        <v>0.8260885135547027</v>
       </c>
       <c r="E3">
-        <v>0.8420759771705308</v>
+        <v>0.8426278931880886</v>
       </c>
       <c r="F3">
-        <v>0.8088255494507941</v>
+        <v>0.8094703048666211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8432097305765928</v>
+        <v>0.8438016018463907</v>
       </c>
       <c r="K3">
-        <v>0.8389650006553154</v>
+        <v>0.839565741397405</v>
       </c>
       <c r="L3">
-        <v>0.8552272688799798</v>
+        <v>0.8557682232121059</v>
       </c>
       <c r="M3">
-        <v>0.8226739761340831</v>
+        <v>0.8233044889710245</v>
+      </c>
+      <c r="N3">
+        <v>0.8867683476793005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8430800950372055</v>
+        <v>0.8435618237532202</v>
       </c>
       <c r="D4">
-        <v>0.8517526578885615</v>
+        <v>0.8522293677823516</v>
       </c>
       <c r="E4">
-        <v>0.8656910978332122</v>
+        <v>0.866120542510032</v>
       </c>
       <c r="F4">
-        <v>0.8376297129462912</v>
+        <v>0.8381272587132174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8675730992007292</v>
+        <v>0.8680350610428044</v>
       </c>
       <c r="K4">
-        <v>0.8640446938699465</v>
+        <v>0.8645127599575401</v>
       </c>
       <c r="L4">
-        <v>0.8777354867546249</v>
+        <v>0.8781574652332825</v>
       </c>
       <c r="M4">
-        <v>0.8501836647512682</v>
+        <v>0.8506717872478589</v>
+      </c>
+      <c r="N4">
+        <v>0.9044408189647919</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8531172170646832</v>
+        <v>0.8535553642106783</v>
       </c>
       <c r="D5">
-        <v>0.8615160427779137</v>
+        <v>0.8619500477962423</v>
       </c>
       <c r="E5">
-        <v>0.8744729304826393</v>
+        <v>0.8748640897661973</v>
       </c>
       <c r="F5">
-        <v>0.8483216060542776</v>
+        <v>0.8487735325640449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8766184936746311</v>
+        <v>0.8770397512395882</v>
       </c>
       <c r="K5">
-        <v>0.8733571054071536</v>
+        <v>0.8737836700708911</v>
       </c>
       <c r="L5">
-        <v>0.8860959604277867</v>
+        <v>0.8864806666725267</v>
       </c>
       <c r="M5">
-        <v>0.8603935854353383</v>
+        <v>0.8608374486005341</v>
+      </c>
+      <c r="N5">
+        <v>0.9110126653664653</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8547405910248342</v>
+        <v>0.8551720355076244</v>
       </c>
       <c r="D6">
-        <v>0.8630955527814826</v>
+        <v>0.8635229840592822</v>
       </c>
       <c r="E6">
-        <v>0.8758939693596176</v>
+        <v>0.8762792320268619</v>
       </c>
       <c r="F6">
-        <v>0.8500509103936994</v>
+        <v>0.8504958292097845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8780814535430777</v>
+        <v>0.8784964369207177</v>
       </c>
       <c r="K6">
-        <v>0.8748633252128961</v>
+        <v>0.8752834961671719</v>
       </c>
       <c r="L6">
-        <v>0.8874482958867643</v>
+        <v>0.8878272575804941</v>
       </c>
       <c r="M6">
-        <v>0.8620448126853716</v>
+        <v>0.8624818706352172</v>
+      </c>
+      <c r="N6">
+        <v>0.9120759434331255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.843218647726822</v>
+        <v>0.8436997482414339</v>
       </c>
       <c r="D7">
-        <v>0.8518874017724937</v>
+        <v>0.8523634965600124</v>
       </c>
       <c r="E7">
-        <v>0.8658122704398709</v>
+        <v>0.8662411639216681</v>
       </c>
       <c r="F7">
-        <v>0.8377773035620869</v>
+        <v>0.8382741911062035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8676979615329068</v>
+        <v>0.8681593377307222</v>
       </c>
       <c r="K7">
-        <v>0.8641732371804726</v>
+        <v>0.8646407058966507</v>
       </c>
       <c r="L7">
-        <v>0.8778508825273715</v>
+        <v>0.8782723247011122</v>
       </c>
       <c r="M7">
-        <v>0.8503246100934289</v>
+        <v>0.850812094485914</v>
+      </c>
+      <c r="N7">
+        <v>0.9045315057515746</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D8">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E8">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F8">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K8">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L8">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M8">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N8">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D9">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E9">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F9">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K9">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L9">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M9">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N9">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D10">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E10">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F10">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K10">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L10">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M10">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N10">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D11">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E11">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F11">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K11">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L11">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M11">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N11">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D12">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E12">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F12">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K12">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L12">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M12">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N12">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D13">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E13">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F13">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K13">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L13">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M13">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N13">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D14">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E14">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F14">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K14">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L14">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M14">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N14">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D15">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E15">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F15">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K15">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L15">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M15">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N15">
+        <v>0.8640619864525569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D16">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E16">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F16">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K16">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L16">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M16">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N16">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D17">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E17">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F17">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K17">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L17">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M17">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N17">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D18">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E18">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F18">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K18">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L18">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M18">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N18">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D19">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E19">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F19">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K19">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L19">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M19">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N19">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D20">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E20">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F20">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K20">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L20">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M20">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N20">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D21">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E21">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F21">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K21">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L21">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M21">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N21">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D22">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E22">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F22">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K22">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L22">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M22">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N22">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D23">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E23">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F23">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K23">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L23">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M23">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N23">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D24">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E24">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F24">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K24">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L24">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M24">
-        <v>0.7871287826652207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N24">
+        <v>0.8640619864525569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.781124917259174</v>
+        <v>0.7820040525653023</v>
       </c>
       <c r="D25">
-        <v>0.7915940122044399</v>
+        <v>0.7924578106746145</v>
       </c>
       <c r="E25">
-        <v>0.8116876956256237</v>
+        <v>0.8124626915338197</v>
       </c>
       <c r="F25">
-        <v>0.7716062053725675</v>
+        <v>0.7725231015696407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8117682988667746</v>
+        <v>0.8125960940611547</v>
       </c>
       <c r="K25">
-        <v>0.8066014243629354</v>
+        <v>0.807443748478412</v>
       </c>
       <c r="L25">
-        <v>0.8262113966887683</v>
+        <v>0.8269683770947074</v>
       </c>
       <c r="M25">
-        <v>0.7871287826652207</v>
+        <v>0.7880212541734362</v>
+      </c>
+      <c r="N25">
+        <v>0.8640619864525569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9631615364522813</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9719435915918964</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9794004036677761</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9802770052120388</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9865028204489632</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9838081472987832</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.991154384442951</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.992018127382103</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9879037676074557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.9711759747466091</v>
+      </c>
+      <c r="D3">
+        <v>0.9792278768391851</v>
+      </c>
+      <c r="E3">
+        <v>0.9864704028599395</v>
+      </c>
+      <c r="F3">
+        <v>0.9881742511949498</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9924844914772621</v>
+      </c>
+      <c r="K3">
+        <v>0.9901336261915801</v>
+      </c>
+      <c r="L3">
+        <v>0.997279375337931</v>
+      </c>
+      <c r="M3">
+        <v>0.998960714831283</v>
+      </c>
+      <c r="N3">
+        <v>0.9938939332947221</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.9761978668671732</v>
+      </c>
+      <c r="D4">
+        <v>0.983799425337283</v>
+      </c>
+      <c r="E4">
+        <v>0.9909078031091715</v>
+      </c>
+      <c r="F4">
+        <v>0.9931322457506159</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9962306730213666</v>
+      </c>
+      <c r="K4">
+        <v>0.9940973912332405</v>
+      </c>
+      <c r="L4">
+        <v>1.001117215910692</v>
+      </c>
+      <c r="M4">
+        <v>1.003314271384055</v>
+      </c>
+      <c r="N4">
+        <v>0.9976454348463123</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.978272273874583</v>
+      </c>
+      <c r="D5">
+        <v>0.9856894282036786</v>
+      </c>
+      <c r="E5">
+        <v>0.9927424072712423</v>
+      </c>
+      <c r="F5">
+        <v>0.9951824565088823</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9977775629871803</v>
+      </c>
+      <c r="K5">
+        <v>0.995734670357281</v>
+      </c>
+      <c r="L5">
+        <v>1.002702400082975</v>
+      </c>
+      <c r="M5">
+        <v>1.005113305250114</v>
+      </c>
+      <c r="N5">
+        <v>0.9991945215733082</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.9786184855027478</v>
+      </c>
+      <c r="D6">
+        <v>0.9860049559326954</v>
+      </c>
+      <c r="E6">
+        <v>0.9930486895507031</v>
+      </c>
+      <c r="F6">
+        <v>0.9955247566788443</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9980356987763319</v>
+      </c>
+      <c r="K6">
+        <v>0.9960079217387036</v>
+      </c>
+      <c r="L6">
+        <v>1.002966952135626</v>
+      </c>
+      <c r="M6">
+        <v>1.005413596547617</v>
+      </c>
+      <c r="N6">
+        <v>0.9994530239448891</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.9762257266960431</v>
+      </c>
+      <c r="D7">
+        <v>0.9838248022811158</v>
+      </c>
+      <c r="E7">
+        <v>0.9909324359970547</v>
+      </c>
+      <c r="F7">
+        <v>0.9931597720276011</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.99625145046458</v>
+      </c>
+      <c r="K7">
+        <v>0.9941193806080195</v>
+      </c>
+      <c r="L7">
+        <v>1.001138505958934</v>
+      </c>
+      <c r="M7">
+        <v>1.003338430231412</v>
+      </c>
+      <c r="N7">
+        <v>0.997666241795878</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.9659055656919446</v>
+      </c>
+      <c r="D8">
+        <v>0.9744360455692542</v>
+      </c>
+      <c r="E8">
+        <v>0.9818194527766105</v>
+      </c>
+      <c r="F8">
+        <v>0.9829788360576176</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.9885512211688455</v>
+      </c>
+      <c r="K8">
+        <v>0.9859738049920335</v>
+      </c>
+      <c r="L8">
+        <v>0.9932514559177912</v>
+      </c>
+      <c r="M8">
+        <v>0.994394415223528</v>
+      </c>
+      <c r="N8">
+        <v>0.9899550772913152</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.9463396322391038</v>
+      </c>
+      <c r="D9">
+        <v>0.956699883066529</v>
+      </c>
+      <c r="E9">
+        <v>0.964607971814779</v>
+      </c>
+      <c r="F9">
+        <v>0.9637595051679518</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.973940755204198</v>
+      </c>
+      <c r="K9">
+        <v>0.9705368437783465</v>
+      </c>
+      <c r="L9">
+        <v>0.9783026038021801</v>
+      </c>
+      <c r="M9">
+        <v>0.9774692625140258</v>
+      </c>
+      <c r="N9">
+        <v>0.9753238627891537</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.932167119148649</v>
+      </c>
+      <c r="D10">
+        <v>0.9439052283984568</v>
+      </c>
+      <c r="E10">
+        <v>0.9521959724821137</v>
+      </c>
+      <c r="F10">
+        <v>0.949902468492827</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9633568714629845</v>
+      </c>
+      <c r="K10">
+        <v>0.9593669516657005</v>
+      </c>
+      <c r="L10">
+        <v>0.967485533707933</v>
+      </c>
+      <c r="M10">
+        <v>0.9652392586748408</v>
+      </c>
+      <c r="N10">
+        <v>0.9647249487190394</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9257083297708973</v>
+      </c>
+      <c r="D11">
+        <v>0.9380891751369047</v>
+      </c>
+      <c r="E11">
+        <v>0.9465552829124272</v>
+      </c>
+      <c r="F11">
+        <v>0.9436048811429572</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9585352061905973</v>
+      </c>
+      <c r="K11">
+        <v>0.9542813632833361</v>
+      </c>
+      <c r="L11">
+        <v>0.9625607335816184</v>
+      </c>
+      <c r="M11">
+        <v>0.9596749032796196</v>
+      </c>
+      <c r="N11">
+        <v>0.959896436128913</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9232553553518167</v>
+      </c>
+      <c r="D12">
+        <v>0.9358827611955076</v>
+      </c>
+      <c r="E12">
+        <v>0.9444156526072941</v>
+      </c>
+      <c r="F12">
+        <v>0.941215958787306</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9567044346310535</v>
+      </c>
+      <c r="K12">
+        <v>0.9523508405516723</v>
+      </c>
+      <c r="L12">
+        <v>0.9606912933786389</v>
+      </c>
+      <c r="M12">
+        <v>0.9575632158548866</v>
+      </c>
+      <c r="N12">
+        <v>0.9580630646637619</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9237840636994155</v>
+      </c>
+      <c r="D13">
+        <v>0.9363582116088381</v>
+      </c>
+      <c r="E13">
+        <v>0.9448766997751157</v>
+      </c>
+      <c r="F13">
+        <v>0.9417307301876366</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.957099011615586</v>
+      </c>
+      <c r="K13">
+        <v>0.9527668956255854</v>
+      </c>
+      <c r="L13">
+        <v>0.9610941817977675</v>
+      </c>
+      <c r="M13">
+        <v>0.9580182885154664</v>
+      </c>
+      <c r="N13">
+        <v>0.958458201992871</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.9255067005831326</v>
+      </c>
+      <c r="D14">
+        <v>0.9379077614857642</v>
+      </c>
+      <c r="E14">
+        <v>0.946379354812696</v>
+      </c>
+      <c r="F14">
+        <v>0.9434084582756618</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9583847106116135</v>
+      </c>
+      <c r="K14">
+        <v>0.9541226584960691</v>
+      </c>
+      <c r="L14">
+        <v>0.9624070491938959</v>
+      </c>
+      <c r="M14">
+        <v>0.959501293593622</v>
+      </c>
+      <c r="N14">
+        <v>0.9597457268289447</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.9265607527685427</v>
+      </c>
+      <c r="D15">
+        <v>0.9388562345368509</v>
+      </c>
+      <c r="E15">
+        <v>0.9472991588060792</v>
+      </c>
+      <c r="F15">
+        <v>0.9444354096495751</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.959171471938886</v>
+      </c>
+      <c r="K15">
+        <v>0.9549523546228577</v>
+      </c>
+      <c r="L15">
+        <v>0.9632105010937995</v>
+      </c>
+      <c r="M15">
+        <v>0.9604089347933362</v>
+      </c>
+      <c r="N15">
+        <v>0.9605336054475448</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9325885322831409</v>
+      </c>
+      <c r="D16">
+        <v>0.9442850295037167</v>
+      </c>
+      <c r="E16">
+        <v>0.9525643547690525</v>
+      </c>
+      <c r="F16">
+        <v>0.9503137403626668</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.9636715180766661</v>
+      </c>
+      <c r="K16">
+        <v>0.9596988840509032</v>
+      </c>
+      <c r="L16">
+        <v>0.9678069765796518</v>
+      </c>
+      <c r="M16">
+        <v>0.9656025196495374</v>
+      </c>
+      <c r="N16">
+        <v>0.965040042167003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9362797602781061</v>
+      </c>
+      <c r="D17">
+        <v>0.9476134596778854</v>
+      </c>
+      <c r="E17">
+        <v>0.9557928792196191</v>
+      </c>
+      <c r="F17">
+        <v>0.9539181205767977</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.966427770079494</v>
+      </c>
+      <c r="K17">
+        <v>0.9626068988463612</v>
+      </c>
+      <c r="L17">
+        <v>0.9706231135535883</v>
+      </c>
+      <c r="M17">
+        <v>0.9687854372895573</v>
+      </c>
+      <c r="N17">
+        <v>0.9678002083638214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.9384021380649158</v>
+      </c>
+      <c r="D18">
+        <v>0.9495286053607264</v>
+      </c>
+      <c r="E18">
+        <v>0.9576506701445336</v>
+      </c>
+      <c r="F18">
+        <v>0.9559921783832664</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9680127013520219</v>
+      </c>
+      <c r="K18">
+        <v>0.9642793830067752</v>
+      </c>
+      <c r="L18">
+        <v>0.9722427684921991</v>
+      </c>
+      <c r="M18">
+        <v>0.9706163912141509</v>
+      </c>
+      <c r="N18">
+        <v>0.9693873904205502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.939120768501477</v>
+      </c>
+      <c r="D19">
+        <v>0.9501772935606299</v>
+      </c>
+      <c r="E19">
+        <v>0.9582799523155333</v>
+      </c>
+      <c r="F19">
+        <v>0.9566947161606928</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9685493735408535</v>
+      </c>
+      <c r="K19">
+        <v>0.9648457496030598</v>
+      </c>
+      <c r="L19">
+        <v>0.9727912465681953</v>
+      </c>
+      <c r="M19">
+        <v>0.9712364838192142</v>
+      </c>
+      <c r="N19">
+        <v>0.9699248247454474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9358869341500673</v>
+      </c>
+      <c r="D20">
+        <v>0.9472590991397869</v>
+      </c>
+      <c r="E20">
+        <v>0.9554491413184292</v>
+      </c>
+      <c r="F20">
+        <v>0.953534367496106</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9661344292199802</v>
+      </c>
+      <c r="K20">
+        <v>0.9622973766536151</v>
+      </c>
+      <c r="L20">
+        <v>0.9703233691730165</v>
+      </c>
+      <c r="M20">
+        <v>0.968446617167865</v>
+      </c>
+      <c r="N20">
+        <v>0.9675064509266408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9250009633885932</v>
+      </c>
+      <c r="D21">
+        <v>0.9374527702997961</v>
+      </c>
+      <c r="E21">
+        <v>0.9459381258444118</v>
+      </c>
+      <c r="F21">
+        <v>0.9429158260767787</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9580072372726791</v>
+      </c>
+      <c r="K21">
+        <v>0.9537246021969341</v>
+      </c>
+      <c r="L21">
+        <v>0.9620215856674952</v>
+      </c>
+      <c r="M21">
+        <v>0.9590658627588459</v>
+      </c>
+      <c r="N21">
+        <v>0.9593677174345723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.9178412973800736</v>
+      </c>
+      <c r="D22">
+        <v>0.9310177229626935</v>
+      </c>
+      <c r="E22">
+        <v>0.9396983966336185</v>
+      </c>
+      <c r="F22">
+        <v>0.9359487620560918</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9526647144021603</v>
+      </c>
+      <c r="K22">
+        <v>0.9480918651771427</v>
+      </c>
+      <c r="L22">
+        <v>0.9565671885628251</v>
+      </c>
+      <c r="M22">
+        <v>0.9529056291156188</v>
+      </c>
+      <c r="N22">
+        <v>0.9540176075687815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.921668735734143</v>
+      </c>
+      <c r="D23">
+        <v>0.934456345043513</v>
+      </c>
+      <c r="E23">
+        <v>0.9430324894552189</v>
+      </c>
+      <c r="F23">
+        <v>0.9396715957714896</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9555204153155379</v>
+      </c>
+      <c r="K23">
+        <v>0.9511024388785312</v>
+      </c>
+      <c r="L23">
+        <v>0.9594824079514656</v>
+      </c>
+      <c r="M23">
+        <v>0.9561978234963843</v>
+      </c>
+      <c r="N23">
+        <v>0.9568773639050093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.9360645296886206</v>
+      </c>
+      <c r="D24">
+        <v>0.9474193002588984</v>
+      </c>
+      <c r="E24">
+        <v>0.9556045397007408</v>
+      </c>
+      <c r="F24">
+        <v>0.9537078561288631</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9662670473241288</v>
+      </c>
+      <c r="K24">
+        <v>0.9624373093825266</v>
+      </c>
+      <c r="L24">
+        <v>0.9704588813874361</v>
+      </c>
+      <c r="M24">
+        <v>0.9685997941415468</v>
+      </c>
+      <c r="N24">
+        <v>0.9676392573637087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9515804956230317</v>
+      </c>
+      <c r="D25">
+        <v>0.9614424250668628</v>
+      </c>
+      <c r="E25">
+        <v>0.9692096372950805</v>
+      </c>
+      <c r="F25">
+        <v>0.968897237137864</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.9778549552751387</v>
+      </c>
+      <c r="K25">
+        <v>0.9746703194745346</v>
+      </c>
+      <c r="L25">
+        <v>0.9823055112767592</v>
+      </c>
+      <c r="M25">
+        <v>0.9819983683393277</v>
+      </c>
+      <c r="N25">
+        <v>0.9792436214731602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9631615364522813</v>
+        <v>1.030562134411285</v>
       </c>
       <c r="D2">
-        <v>0.9719435915918964</v>
+        <v>1.033206538173445</v>
       </c>
       <c r="E2">
-        <v>0.9794004036677761</v>
+        <v>1.038875712721936</v>
       </c>
       <c r="F2">
-        <v>0.9802770052120388</v>
+        <v>1.046786514459898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9865028204489632</v>
+        <v>1.035702694217099</v>
       </c>
       <c r="K2">
-        <v>0.9838081472987832</v>
+        <v>1.036009554240408</v>
       </c>
       <c r="L2">
-        <v>0.991154384442951</v>
+        <v>1.041662500047411</v>
       </c>
       <c r="M2">
-        <v>0.992018127382103</v>
+        <v>1.049550974837245</v>
       </c>
       <c r="N2">
-        <v>0.9879037676074557</v>
+        <v>1.037173510839646</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9711759747466091</v>
+        <v>1.03215381108919</v>
       </c>
       <c r="D3">
-        <v>0.9792278768391851</v>
+        <v>1.03471179359483</v>
       </c>
       <c r="E3">
-        <v>0.9864704028599395</v>
+        <v>1.04033598946218</v>
       </c>
       <c r="F3">
-        <v>0.9881742511949498</v>
+        <v>1.048434650840371</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9924844914772621</v>
+        <v>1.036932603174502</v>
       </c>
       <c r="K3">
-        <v>0.9901336261915801</v>
+        <v>1.0373218830727</v>
       </c>
       <c r="L3">
-        <v>0.997279375337931</v>
+        <v>1.042931164785066</v>
       </c>
       <c r="M3">
-        <v>0.998960714831283</v>
+        <v>1.051008653747325</v>
       </c>
       <c r="N3">
-        <v>0.9938939332947221</v>
+        <v>1.038405166408842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9761978668671732</v>
+        <v>1.033182472109806</v>
       </c>
       <c r="D4">
-        <v>0.983799425337283</v>
+        <v>1.035684889488324</v>
       </c>
       <c r="E4">
-        <v>0.9909078031091715</v>
+        <v>1.041279939445193</v>
       </c>
       <c r="F4">
-        <v>0.9931322457506159</v>
+        <v>1.049500404049907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9962306730213666</v>
+        <v>1.037726867828673</v>
       </c>
       <c r="K4">
-        <v>0.9940973912332405</v>
+        <v>1.038169651329701</v>
       </c>
       <c r="L4">
-        <v>1.001117215910692</v>
+        <v>1.043750624640977</v>
       </c>
       <c r="M4">
-        <v>1.003314271384055</v>
+        <v>1.051950700288226</v>
       </c>
       <c r="N4">
-        <v>0.9976454348463123</v>
+        <v>1.039200559009926</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.978272273874583</v>
+        <v>1.033614629190545</v>
       </c>
       <c r="D5">
-        <v>0.9856894282036786</v>
+        <v>1.036093770649095</v>
       </c>
       <c r="E5">
-        <v>0.9927424072712423</v>
+        <v>1.041676557336047</v>
       </c>
       <c r="F5">
-        <v>0.9951824565088823</v>
+        <v>1.049948288000722</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9977775629871803</v>
+        <v>1.038060408364389</v>
       </c>
       <c r="K5">
-        <v>0.995734670357281</v>
+        <v>1.038525726403061</v>
       </c>
       <c r="L5">
-        <v>1.002702400082975</v>
+        <v>1.044094785471044</v>
       </c>
       <c r="M5">
-        <v>1.005113305250114</v>
+        <v>1.052346465061968</v>
       </c>
       <c r="N5">
-        <v>0.9991945215733082</v>
+        <v>1.03953457321146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9786184855027478</v>
+        <v>1.033687173422782</v>
       </c>
       <c r="D6">
-        <v>0.9860049559326954</v>
+        <v>1.036162411617872</v>
       </c>
       <c r="E6">
-        <v>0.9930486895507031</v>
+        <v>1.041743138632082</v>
       </c>
       <c r="F6">
-        <v>0.9955247566788443</v>
+        <v>1.05002348064651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9980356987763319</v>
+        <v>1.038116389898298</v>
       </c>
       <c r="K6">
-        <v>0.9960079217387036</v>
+        <v>1.03858549403571</v>
       </c>
       <c r="L6">
-        <v>1.002966952135626</v>
+        <v>1.044152551856734</v>
       </c>
       <c r="M6">
-        <v>1.005413596547617</v>
+        <v>1.052412900023368</v>
       </c>
       <c r="N6">
-        <v>0.9994530239448891</v>
+        <v>1.039590634245568</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9762257266960431</v>
+        <v>1.033188247747824</v>
       </c>
       <c r="D7">
-        <v>0.9838248022811158</v>
+        <v>1.035690353785499</v>
       </c>
       <c r="E7">
-        <v>0.9909324359970547</v>
+        <v>1.041285239921016</v>
       </c>
       <c r="F7">
-        <v>0.9931597720276011</v>
+        <v>1.049506389307972</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.99625145046458</v>
+        <v>1.037731326050825</v>
       </c>
       <c r="K7">
-        <v>0.9941193806080195</v>
+        <v>1.038174410495421</v>
       </c>
       <c r="L7">
-        <v>1.001138505958934</v>
+        <v>1.043755224660985</v>
       </c>
       <c r="M7">
-        <v>1.003338430231412</v>
+        <v>1.051955989572085</v>
       </c>
       <c r="N7">
-        <v>0.997666241795878</v>
+        <v>1.039205023563264</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9659055656919446</v>
+        <v>1.031100315779474</v>
       </c>
       <c r="D8">
-        <v>0.9744360455692542</v>
+        <v>1.033715438695404</v>
       </c>
       <c r="E8">
-        <v>0.9818194527766105</v>
+        <v>1.039369420912191</v>
       </c>
       <c r="F8">
-        <v>0.9829788360576176</v>
+        <v>1.047343660600443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9885512211688455</v>
+        <v>1.036118676871632</v>
       </c>
       <c r="K8">
-        <v>0.9859738049920335</v>
+        <v>1.036453355580747</v>
       </c>
       <c r="L8">
-        <v>0.9932514559177912</v>
+        <v>1.042091556089259</v>
       </c>
       <c r="M8">
-        <v>0.994394415223528</v>
+        <v>1.050043851354095</v>
       </c>
       <c r="N8">
-        <v>0.9899550772913152</v>
+        <v>1.037590084237263</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9463396322391038</v>
+        <v>1.027411026080917</v>
       </c>
       <c r="D9">
-        <v>0.956699883066529</v>
+        <v>1.030228081309539</v>
       </c>
       <c r="E9">
-        <v>0.964607971814779</v>
+        <v>1.03598589458151</v>
       </c>
       <c r="F9">
-        <v>0.9637595051679518</v>
+        <v>1.043526873432085</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.973940755204198</v>
+        <v>1.033264644288842</v>
       </c>
       <c r="K9">
-        <v>0.9705368437783465</v>
+        <v>1.033409603510073</v>
       </c>
       <c r="L9">
-        <v>0.9783026038021801</v>
+        <v>1.039148518373584</v>
       </c>
       <c r="M9">
-        <v>0.9774692625140258</v>
+        <v>1.046665091508326</v>
       </c>
       <c r="N9">
-        <v>0.9753238627891537</v>
+        <v>1.034731998600843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.932167119148649</v>
+        <v>1.024944108354034</v>
       </c>
       <c r="D10">
-        <v>0.9439052283984568</v>
+        <v>1.027897741601417</v>
       </c>
       <c r="E10">
-        <v>0.9521959724821137</v>
+        <v>1.033724593018178</v>
       </c>
       <c r="F10">
-        <v>0.949902468492827</v>
+        <v>1.040977882752943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9633568714629845</v>
+        <v>1.031353204922554</v>
       </c>
       <c r="K10">
-        <v>0.9593669516657005</v>
+        <v>1.031372540575154</v>
       </c>
       <c r="L10">
-        <v>0.967485533707933</v>
+        <v>1.037178341101313</v>
       </c>
       <c r="M10">
-        <v>0.9652392586748408</v>
+        <v>1.044405789712116</v>
       </c>
       <c r="N10">
-        <v>0.9647249487190394</v>
+        <v>1.03281784477141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9257083297708973</v>
+        <v>1.023874016672767</v>
       </c>
       <c r="D11">
-        <v>0.9380891751369047</v>
+        <v>1.026887272776326</v>
       </c>
       <c r="E11">
-        <v>0.9465552829124272</v>
+        <v>1.032743979980415</v>
       </c>
       <c r="F11">
-        <v>0.9436048811429572</v>
+        <v>1.039872953408709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9585352061905973</v>
+        <v>1.030523353244349</v>
       </c>
       <c r="K11">
-        <v>0.9542813632833361</v>
+        <v>1.030488490769379</v>
       </c>
       <c r="L11">
-        <v>0.9625607335816184</v>
+        <v>1.036323196263315</v>
       </c>
       <c r="M11">
-        <v>0.9596749032796196</v>
+        <v>1.043425758413411</v>
       </c>
       <c r="N11">
-        <v>0.959896436128913</v>
+        <v>1.031986814608637</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9232553553518167</v>
+        <v>1.023476239755991</v>
       </c>
       <c r="D12">
-        <v>0.9358827611955076</v>
+        <v>1.026511716740801</v>
       </c>
       <c r="E12">
-        <v>0.9444156526072941</v>
+        <v>1.032379508388751</v>
       </c>
       <c r="F12">
-        <v>0.941215958787306</v>
+        <v>1.039462342069675</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9567044346310535</v>
+        <v>1.03021477216249</v>
       </c>
       <c r="K12">
-        <v>0.9523508405516723</v>
+        <v>1.030159807381617</v>
       </c>
       <c r="L12">
-        <v>0.9606912933786389</v>
+        <v>1.036005241231162</v>
       </c>
       <c r="M12">
-        <v>0.9575632158548866</v>
+        <v>1.043061459799599</v>
       </c>
       <c r="N12">
-        <v>0.9580630646637619</v>
+        <v>1.031677795306247</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9237840636994155</v>
+        <v>1.023561577894621</v>
       </c>
       <c r="D13">
-        <v>0.9363582116088381</v>
+        <v>1.026592285036533</v>
       </c>
       <c r="E13">
-        <v>0.9448766997751157</v>
+        <v>1.032457699267963</v>
       </c>
       <c r="F13">
-        <v>0.9417307301876366</v>
+        <v>1.039550428436437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.957099011615586</v>
+        <v>1.03028097925438</v>
       </c>
       <c r="K13">
-        <v>0.9527668956255854</v>
+        <v>1.030230325167483</v>
       </c>
       <c r="L13">
-        <v>0.9610941817977675</v>
+        <v>1.03607345811585</v>
       </c>
       <c r="M13">
-        <v>0.9580182885154664</v>
+        <v>1.043139615531749</v>
       </c>
       <c r="N13">
-        <v>0.958458201992871</v>
+        <v>1.031744096419801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9255067005831326</v>
+        <v>1.023841142440326</v>
       </c>
       <c r="D14">
-        <v>0.9379077614857642</v>
+        <v>1.026856233803733</v>
       </c>
       <c r="E14">
-        <v>0.946379354812696</v>
+        <v>1.032713857357642</v>
       </c>
       <c r="F14">
-        <v>0.9434084582756618</v>
+        <v>1.039839016116397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9583847106116135</v>
+        <v>1.030497852766341</v>
       </c>
       <c r="K14">
-        <v>0.9541226584960691</v>
+        <v>1.030461328033341</v>
       </c>
       <c r="L14">
-        <v>0.9624070491938959</v>
+        <v>1.036296920502646</v>
       </c>
       <c r="M14">
-        <v>0.959501293593622</v>
+        <v>1.043395650970781</v>
       </c>
       <c r="N14">
-        <v>0.9597457268289447</v>
+        <v>1.031961277917025</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9265607527685427</v>
+        <v>1.024013351645639</v>
       </c>
       <c r="D15">
-        <v>0.9388562345368509</v>
+        <v>1.027018831506691</v>
       </c>
       <c r="E15">
-        <v>0.9472991588060792</v>
+        <v>1.032871654273831</v>
       </c>
       <c r="F15">
-        <v>0.9444354096495751</v>
+        <v>1.040016798814951</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.959171471938886</v>
+        <v>1.030631430744719</v>
       </c>
       <c r="K15">
-        <v>0.9549523546228577</v>
+        <v>1.030603615442074</v>
       </c>
       <c r="L15">
-        <v>0.9632105010937995</v>
+        <v>1.036434560891634</v>
       </c>
       <c r="M15">
-        <v>0.9604089347933362</v>
+        <v>1.043553366593536</v>
       </c>
       <c r="N15">
-        <v>0.9605336054475448</v>
+        <v>1.032095045591454</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9325885322831409</v>
+        <v>1.025015085781351</v>
       </c>
       <c r="D16">
-        <v>0.9442850295037167</v>
+        <v>1.02796477238556</v>
       </c>
       <c r="E16">
-        <v>0.9525643547690525</v>
+        <v>1.033789641602626</v>
       </c>
       <c r="F16">
-        <v>0.9503137403626668</v>
+        <v>1.041051187050347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9636715180766661</v>
+        <v>1.031408232641063</v>
       </c>
       <c r="K16">
-        <v>0.9596988840509032</v>
+        <v>1.031431169375307</v>
       </c>
       <c r="L16">
-        <v>0.9678069765796518</v>
+        <v>1.037235050401181</v>
       </c>
       <c r="M16">
-        <v>0.9656025196495374</v>
+        <v>1.04447079366613</v>
       </c>
       <c r="N16">
-        <v>0.965040042167003</v>
+        <v>1.032872950635592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9362797602781061</v>
+        <v>1.025642930172393</v>
       </c>
       <c r="D17">
-        <v>0.9476134596778854</v>
+        <v>1.028557749781809</v>
       </c>
       <c r="E17">
-        <v>0.9557928792196191</v>
+        <v>1.034365074542139</v>
       </c>
       <c r="F17">
-        <v>0.9539181205767977</v>
+        <v>1.041699702452391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.966427770079494</v>
+        <v>1.031894908533827</v>
       </c>
       <c r="K17">
-        <v>0.9626068988463612</v>
+        <v>1.031949733322234</v>
       </c>
       <c r="L17">
-        <v>0.9706231135535883</v>
+        <v>1.037736622525418</v>
       </c>
       <c r="M17">
-        <v>0.9687854372895573</v>
+        <v>1.04504579880025</v>
       </c>
       <c r="N17">
-        <v>0.9678002083638214</v>
+        <v>1.033360317663945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9384021380649158</v>
+        <v>1.026008958657824</v>
       </c>
       <c r="D18">
-        <v>0.9495286053607264</v>
+        <v>1.028903487495892</v>
       </c>
       <c r="E18">
-        <v>0.9576506701445336</v>
+        <v>1.034700575159188</v>
       </c>
       <c r="F18">
-        <v>0.9559921783832664</v>
+        <v>1.042077855533128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9680127013520219</v>
+        <v>1.032178568048327</v>
       </c>
       <c r="K18">
-        <v>0.9642793830067752</v>
+        <v>1.032252011703005</v>
       </c>
       <c r="L18">
-        <v>0.9722427684921991</v>
+        <v>1.038028984345274</v>
       </c>
       <c r="M18">
-        <v>0.9706163912141509</v>
+        <v>1.045381022494943</v>
       </c>
       <c r="N18">
-        <v>0.9693873904205502</v>
+        <v>1.033644380007492</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.939120768501477</v>
+        <v>1.026133734307175</v>
       </c>
       <c r="D19">
-        <v>0.9501772935606299</v>
+        <v>1.029021352364181</v>
       </c>
       <c r="E19">
-        <v>0.9582799523155333</v>
+        <v>1.034814948799851</v>
       </c>
       <c r="F19">
-        <v>0.9566947161606928</v>
+        <v>1.042206776794718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9685493735408535</v>
+        <v>1.032275253207596</v>
       </c>
       <c r="K19">
-        <v>0.9648457496030598</v>
+        <v>1.032355048667241</v>
       </c>
       <c r="L19">
-        <v>0.9727912465681953</v>
+        <v>1.038128639072815</v>
       </c>
       <c r="M19">
-        <v>0.9712364838192142</v>
+        <v>1.04549529707875</v>
       </c>
       <c r="N19">
-        <v>0.9699248247454474</v>
+        <v>1.033741202470777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9358869341500673</v>
+        <v>1.025575587375707</v>
       </c>
       <c r="D20">
-        <v>0.9472590991397869</v>
+        <v>1.028494143056313</v>
       </c>
       <c r="E20">
-        <v>0.9554491413184292</v>
+        <v>1.03430335055181</v>
       </c>
       <c r="F20">
-        <v>0.953534367496106</v>
+        <v>1.041630134861107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9661344292199802</v>
+        <v>1.031842714632578</v>
       </c>
       <c r="K20">
-        <v>0.9622973766536151</v>
+        <v>1.031894116161544</v>
       </c>
       <c r="L20">
-        <v>0.9703233691730165</v>
+        <v>1.03768282899494</v>
       </c>
       <c r="M20">
-        <v>0.968446617167865</v>
+        <v>1.044984123545516</v>
       </c>
       <c r="N20">
-        <v>0.9675064509266408</v>
+        <v>1.03330804964137</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9250009633885932</v>
+        <v>1.023758825949248</v>
       </c>
       <c r="D21">
-        <v>0.9374527702997961</v>
+        <v>1.026778513706073</v>
       </c>
       <c r="E21">
-        <v>0.9459381258444118</v>
+        <v>1.032638431564003</v>
       </c>
       <c r="F21">
-        <v>0.9429158260767787</v>
+        <v>1.039754039610723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9580072372726791</v>
+        <v>1.030433998302629</v>
       </c>
       <c r="K21">
-        <v>0.9537246021969341</v>
+        <v>1.030393312021792</v>
       </c>
       <c r="L21">
-        <v>0.9620215856674952</v>
+        <v>1.036231125199006</v>
       </c>
       <c r="M21">
-        <v>0.9590658627588459</v>
+        <v>1.043320262487956</v>
       </c>
       <c r="N21">
-        <v>0.9593677174345723</v>
+        <v>1.031897332772651</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9178412973800736</v>
+        <v>1.022614830413416</v>
       </c>
       <c r="D22">
-        <v>0.9310177229626935</v>
+        <v>1.025698534600439</v>
       </c>
       <c r="E22">
-        <v>0.9396983966336185</v>
+        <v>1.031590305474058</v>
       </c>
       <c r="F22">
-        <v>0.9359487620560918</v>
+        <v>1.038573351184445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9526647144021603</v>
+        <v>1.029546326963721</v>
       </c>
       <c r="K22">
-        <v>0.9480918651771427</v>
+        <v>1.029447910689423</v>
       </c>
       <c r="L22">
-        <v>0.9565671885628251</v>
+        <v>1.03531654770955</v>
       </c>
       <c r="M22">
-        <v>0.9529056291156188</v>
+        <v>1.042272551957321</v>
       </c>
       <c r="N22">
-        <v>0.9540176075687815</v>
+        <v>1.031008400838624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.921668735734143</v>
+        <v>1.023221451602037</v>
       </c>
       <c r="D23">
-        <v>0.934456345043513</v>
+        <v>1.026271178097185</v>
       </c>
       <c r="E23">
-        <v>0.9430324894552189</v>
+        <v>1.032146065846889</v>
       </c>
       <c r="F23">
-        <v>0.9396715957714896</v>
+        <v>1.039199365696136</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9555204153155379</v>
+        <v>1.030017086655981</v>
       </c>
       <c r="K23">
-        <v>0.9511024388785312</v>
+        <v>1.02994925823704</v>
       </c>
       <c r="L23">
-        <v>0.9594824079514656</v>
+        <v>1.035801559348376</v>
       </c>
       <c r="M23">
-        <v>0.9561978234963843</v>
+        <v>1.042828115832002</v>
       </c>
       <c r="N23">
-        <v>0.9568773639050093</v>
+        <v>1.031479829063643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9360645296886206</v>
+        <v>1.025606017250856</v>
       </c>
       <c r="D24">
-        <v>0.9474193002588984</v>
+        <v>1.02852288461791</v>
       </c>
       <c r="E24">
-        <v>0.9556045397007408</v>
+        <v>1.034331241397905</v>
       </c>
       <c r="F24">
-        <v>0.9537078561288631</v>
+        <v>1.041661569816516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9662670473241288</v>
+        <v>1.031866299459806</v>
       </c>
       <c r="K24">
-        <v>0.9624373093825266</v>
+        <v>1.03191924775334</v>
       </c>
       <c r="L24">
-        <v>0.9704588813874361</v>
+        <v>1.037707136583794</v>
       </c>
       <c r="M24">
-        <v>0.9685997941415468</v>
+        <v>1.045011992454706</v>
       </c>
       <c r="N24">
-        <v>0.9676392573637087</v>
+        <v>1.033331667961758</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9515804956230317</v>
+        <v>1.02836605372284</v>
       </c>
       <c r="D25">
-        <v>0.9614424250668628</v>
+        <v>1.031130566094369</v>
       </c>
       <c r="E25">
-        <v>0.9692096372950805</v>
+        <v>1.036861570325309</v>
       </c>
       <c r="F25">
-        <v>0.968897237137864</v>
+        <v>1.044514348941243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9778549552751387</v>
+        <v>1.034003988974581</v>
       </c>
       <c r="K25">
-        <v>0.9746703194745346</v>
+        <v>1.034197842754593</v>
       </c>
       <c r="L25">
-        <v>0.9823055112767592</v>
+        <v>1.03991076712819</v>
       </c>
       <c r="M25">
-        <v>0.9819983683393277</v>
+        <v>1.047539741011015</v>
       </c>
       <c r="N25">
-        <v>0.9792436214731602</v>
+        <v>1.03547239324084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.030562134411285</v>
+        <v>0.9631615364522828</v>
       </c>
       <c r="D2">
-        <v>1.033206538173445</v>
+        <v>0.9719435915918979</v>
       </c>
       <c r="E2">
-        <v>1.038875712721936</v>
+        <v>0.9794004036677774</v>
       </c>
       <c r="F2">
-        <v>1.046786514459898</v>
+        <v>0.9802770052120401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.035702694217099</v>
+        <v>0.9865028204489646</v>
       </c>
       <c r="K2">
-        <v>1.036009554240408</v>
+        <v>0.9838081472987847</v>
       </c>
       <c r="L2">
-        <v>1.041662500047411</v>
+        <v>0.9911543844429522</v>
       </c>
       <c r="M2">
-        <v>1.049550974837245</v>
+        <v>0.9920181273821044</v>
       </c>
       <c r="N2">
-        <v>1.037173510839646</v>
+        <v>0.9879037676074571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.03215381108919</v>
+        <v>0.9711759747466076</v>
       </c>
       <c r="D3">
-        <v>1.03471179359483</v>
+        <v>0.9792278768391833</v>
       </c>
       <c r="E3">
-        <v>1.04033598946218</v>
+        <v>0.986470402859938</v>
       </c>
       <c r="F3">
-        <v>1.048434650840371</v>
+        <v>0.9881742511949478</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.036932603174502</v>
+        <v>0.9924844914772605</v>
       </c>
       <c r="K3">
-        <v>1.0373218830727</v>
+        <v>0.9901336261915783</v>
       </c>
       <c r="L3">
-        <v>1.042931164785066</v>
+        <v>0.9972793753379293</v>
       </c>
       <c r="M3">
-        <v>1.051008653747325</v>
+        <v>0.9989607148312811</v>
       </c>
       <c r="N3">
-        <v>1.038405166408842</v>
+        <v>0.9938939332947205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.033182472109806</v>
+        <v>0.9761978668671738</v>
       </c>
       <c r="D4">
-        <v>1.035684889488324</v>
+        <v>0.9837994253372836</v>
       </c>
       <c r="E4">
-        <v>1.041279939445193</v>
+        <v>0.9909078031091718</v>
       </c>
       <c r="F4">
-        <v>1.049500404049907</v>
+        <v>0.9931322457506161</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.037726867828673</v>
+        <v>0.9962306730213669</v>
       </c>
       <c r="K4">
-        <v>1.038169651329701</v>
+        <v>0.9940973912332409</v>
       </c>
       <c r="L4">
-        <v>1.043750624640977</v>
+        <v>1.001117215910692</v>
       </c>
       <c r="M4">
-        <v>1.051950700288226</v>
+        <v>1.003314271384055</v>
       </c>
       <c r="N4">
-        <v>1.039200559009926</v>
+        <v>0.9976454348463127</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.033614629190545</v>
+        <v>0.9782722738745815</v>
       </c>
       <c r="D5">
-        <v>1.036093770649095</v>
+        <v>0.9856894282036772</v>
       </c>
       <c r="E5">
-        <v>1.041676557336047</v>
+        <v>0.9927424072712407</v>
       </c>
       <c r="F5">
-        <v>1.049948288000722</v>
+        <v>0.9951824565088809</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.038060408364389</v>
+        <v>0.9977775629871789</v>
       </c>
       <c r="K5">
-        <v>1.038525726403061</v>
+        <v>0.9957346703572796</v>
       </c>
       <c r="L5">
-        <v>1.044094785471044</v>
+        <v>1.002702400082974</v>
       </c>
       <c r="M5">
-        <v>1.052346465061968</v>
+        <v>1.005113305250112</v>
       </c>
       <c r="N5">
-        <v>1.03953457321146</v>
+        <v>0.9991945215733069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.033687173422782</v>
+        <v>0.9786184855027495</v>
       </c>
       <c r="D6">
-        <v>1.036162411617872</v>
+        <v>0.9860049559326977</v>
       </c>
       <c r="E6">
-        <v>1.041743138632082</v>
+        <v>0.993048689550705</v>
       </c>
       <c r="F6">
-        <v>1.05002348064651</v>
+        <v>0.9955247566788464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.038116389898298</v>
+        <v>0.9980356987763339</v>
       </c>
       <c r="K6">
-        <v>1.03858549403571</v>
+        <v>0.9960079217387056</v>
       </c>
       <c r="L6">
-        <v>1.044152551856734</v>
+        <v>1.002966952135628</v>
       </c>
       <c r="M6">
-        <v>1.052412900023368</v>
+        <v>1.005413596547619</v>
       </c>
       <c r="N6">
-        <v>1.039590634245568</v>
+        <v>0.9994530239448913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.033188247747824</v>
+        <v>0.9762257266960427</v>
       </c>
       <c r="D7">
-        <v>1.035690353785499</v>
+        <v>0.9838248022811155</v>
       </c>
       <c r="E7">
-        <v>1.041285239921016</v>
+        <v>0.9909324359970545</v>
       </c>
       <c r="F7">
-        <v>1.049506389307972</v>
+        <v>0.9931597720276008</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.037731326050825</v>
+        <v>0.9962514504645796</v>
       </c>
       <c r="K7">
-        <v>1.038174410495421</v>
+        <v>0.9941193806080192</v>
       </c>
       <c r="L7">
-        <v>1.043755224660985</v>
+        <v>1.001138505958934</v>
       </c>
       <c r="M7">
-        <v>1.051955989572085</v>
+        <v>1.003338430231411</v>
       </c>
       <c r="N7">
-        <v>1.039205023563264</v>
+        <v>0.997666241795878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.031100315779474</v>
+        <v>0.9659055656919449</v>
       </c>
       <c r="D8">
-        <v>1.033715438695404</v>
+        <v>0.9744360455692541</v>
       </c>
       <c r="E8">
-        <v>1.039369420912191</v>
+        <v>0.9818194527766109</v>
       </c>
       <c r="F8">
-        <v>1.047343660600443</v>
+        <v>0.982978836057618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.036118676871632</v>
+        <v>0.9885512211688459</v>
       </c>
       <c r="K8">
-        <v>1.036453355580747</v>
+        <v>0.9859738049920335</v>
       </c>
       <c r="L8">
-        <v>1.042091556089259</v>
+        <v>0.9932514559177915</v>
       </c>
       <c r="M8">
-        <v>1.050043851354095</v>
+        <v>0.9943944152235286</v>
       </c>
       <c r="N8">
-        <v>1.037590084237263</v>
+        <v>0.9899550772913156</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.027411026080917</v>
+        <v>0.9463396322391039</v>
       </c>
       <c r="D9">
-        <v>1.030228081309539</v>
+        <v>0.9566998830665292</v>
       </c>
       <c r="E9">
-        <v>1.03598589458151</v>
+        <v>0.9646079718147791</v>
       </c>
       <c r="F9">
-        <v>1.043526873432085</v>
+        <v>0.9637595051679517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.033264644288842</v>
+        <v>0.9739407552041981</v>
       </c>
       <c r="K9">
-        <v>1.033409603510073</v>
+        <v>0.9705368437783466</v>
       </c>
       <c r="L9">
-        <v>1.039148518373584</v>
+        <v>0.9783026038021801</v>
       </c>
       <c r="M9">
-        <v>1.046665091508326</v>
+        <v>0.9774692625140259</v>
       </c>
       <c r="N9">
-        <v>1.034731998600843</v>
+        <v>0.975323862789154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.024944108354034</v>
+        <v>0.9321671191486489</v>
       </c>
       <c r="D10">
-        <v>1.027897741601417</v>
+        <v>0.9439052283984567</v>
       </c>
       <c r="E10">
-        <v>1.033724593018178</v>
+        <v>0.9521959724821136</v>
       </c>
       <c r="F10">
-        <v>1.040977882752943</v>
+        <v>0.949902468492827</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.031353204922554</v>
+        <v>0.9633568714629845</v>
       </c>
       <c r="K10">
-        <v>1.031372540575154</v>
+        <v>0.9593669516657006</v>
       </c>
       <c r="L10">
-        <v>1.037178341101313</v>
+        <v>0.9674855337079329</v>
       </c>
       <c r="M10">
-        <v>1.044405789712116</v>
+        <v>0.9652392586748408</v>
       </c>
       <c r="N10">
-        <v>1.03281784477141</v>
+        <v>0.9647249487190394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.023874016672767</v>
+        <v>0.9257083297708975</v>
       </c>
       <c r="D11">
-        <v>1.026887272776326</v>
+        <v>0.9380891751369046</v>
       </c>
       <c r="E11">
-        <v>1.032743979980415</v>
+        <v>0.9465552829124273</v>
       </c>
       <c r="F11">
-        <v>1.039872953408709</v>
+        <v>0.9436048811429574</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.030523353244349</v>
+        <v>0.9585352061905973</v>
       </c>
       <c r="K11">
-        <v>1.030488490769379</v>
+        <v>0.954281363283336</v>
       </c>
       <c r="L11">
-        <v>1.036323196263315</v>
+        <v>0.9625607335816184</v>
       </c>
       <c r="M11">
-        <v>1.043425758413411</v>
+        <v>0.9596749032796199</v>
       </c>
       <c r="N11">
-        <v>1.031986814608637</v>
+        <v>0.9598964361289128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.023476239755991</v>
+        <v>0.9232553553518175</v>
       </c>
       <c r="D12">
-        <v>1.026511716740801</v>
+        <v>0.935882761195508</v>
       </c>
       <c r="E12">
-        <v>1.032379508388751</v>
+        <v>0.9444156526072943</v>
       </c>
       <c r="F12">
-        <v>1.039462342069675</v>
+        <v>0.9412159587873066</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.03021477216249</v>
+        <v>0.9567044346310538</v>
       </c>
       <c r="K12">
-        <v>1.030159807381617</v>
+        <v>0.9523508405516729</v>
       </c>
       <c r="L12">
-        <v>1.036005241231162</v>
+        <v>0.9606912933786391</v>
       </c>
       <c r="M12">
-        <v>1.043061459799599</v>
+        <v>0.9575632158548871</v>
       </c>
       <c r="N12">
-        <v>1.031677795306247</v>
+        <v>0.9580630646637625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.023561577894621</v>
+        <v>0.9237840636994165</v>
       </c>
       <c r="D13">
-        <v>1.026592285036533</v>
+        <v>0.9363582116088388</v>
       </c>
       <c r="E13">
-        <v>1.032457699267963</v>
+        <v>0.9448766997751162</v>
       </c>
       <c r="F13">
-        <v>1.039550428436437</v>
+        <v>0.9417307301876374</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.03028097925438</v>
+        <v>0.9570990116155864</v>
       </c>
       <c r="K13">
-        <v>1.030230325167483</v>
+        <v>0.9527668956255859</v>
       </c>
       <c r="L13">
-        <v>1.03607345811585</v>
+        <v>0.9610941817977681</v>
       </c>
       <c r="M13">
-        <v>1.043139615531749</v>
+        <v>0.958018288515467</v>
       </c>
       <c r="N13">
-        <v>1.031744096419801</v>
+        <v>0.9584582019928718</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.023841142440326</v>
+        <v>0.9255067005831326</v>
       </c>
       <c r="D14">
-        <v>1.026856233803733</v>
+        <v>0.9379077614857644</v>
       </c>
       <c r="E14">
-        <v>1.032713857357642</v>
+        <v>0.9463793548126961</v>
       </c>
       <c r="F14">
-        <v>1.039839016116397</v>
+        <v>0.9434084582756619</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.030497852766341</v>
+        <v>0.9583847106116138</v>
       </c>
       <c r="K14">
-        <v>1.030461328033341</v>
+        <v>0.9541226584960694</v>
       </c>
       <c r="L14">
-        <v>1.036296920502646</v>
+        <v>0.9624070491938961</v>
       </c>
       <c r="M14">
-        <v>1.043395650970781</v>
+        <v>0.9595012935936221</v>
       </c>
       <c r="N14">
-        <v>1.031961277917025</v>
+        <v>0.9597457268289448</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.024013351645639</v>
+        <v>0.9265607527685431</v>
       </c>
       <c r="D15">
-        <v>1.027018831506691</v>
+        <v>0.9388562345368521</v>
       </c>
       <c r="E15">
-        <v>1.032871654273831</v>
+        <v>0.9472991588060797</v>
       </c>
       <c r="F15">
-        <v>1.040016798814951</v>
+        <v>0.9444354096495755</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.030631430744719</v>
+        <v>0.9591714719388866</v>
       </c>
       <c r="K15">
-        <v>1.030603615442074</v>
+        <v>0.9549523546228588</v>
       </c>
       <c r="L15">
-        <v>1.036434560891634</v>
+        <v>0.9632105010937999</v>
       </c>
       <c r="M15">
-        <v>1.043553366593536</v>
+        <v>0.9604089347933369</v>
       </c>
       <c r="N15">
-        <v>1.032095045591454</v>
+        <v>0.9605336054475456</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.025015085781351</v>
+        <v>0.932588532283142</v>
       </c>
       <c r="D16">
-        <v>1.02796477238556</v>
+        <v>0.9442850295037177</v>
       </c>
       <c r="E16">
-        <v>1.033789641602626</v>
+        <v>0.952564354769054</v>
       </c>
       <c r="F16">
-        <v>1.041051187050347</v>
+        <v>0.9503137403626685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.031408232641063</v>
+        <v>0.9636715180766672</v>
       </c>
       <c r="K16">
-        <v>1.031431169375307</v>
+        <v>0.9596988840509043</v>
       </c>
       <c r="L16">
-        <v>1.037235050401181</v>
+        <v>0.9678069765796532</v>
       </c>
       <c r="M16">
-        <v>1.04447079366613</v>
+        <v>0.965602519649539</v>
       </c>
       <c r="N16">
-        <v>1.032872950635592</v>
+        <v>0.9650400421670041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.025642930172393</v>
+        <v>0.9362797602781083</v>
       </c>
       <c r="D17">
-        <v>1.028557749781809</v>
+        <v>0.9476134596778877</v>
       </c>
       <c r="E17">
-        <v>1.034365074542139</v>
+        <v>0.9557928792196211</v>
       </c>
       <c r="F17">
-        <v>1.041699702452391</v>
+        <v>0.9539181205767998</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.031894908533827</v>
+        <v>0.9664277700794962</v>
       </c>
       <c r="K17">
-        <v>1.031949733322234</v>
+        <v>0.9626068988463635</v>
       </c>
       <c r="L17">
-        <v>1.037736622525418</v>
+        <v>0.9706231135535903</v>
       </c>
       <c r="M17">
-        <v>1.04504579880025</v>
+        <v>0.9687854372895593</v>
       </c>
       <c r="N17">
-        <v>1.033360317663945</v>
+        <v>0.9678002083638237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026008958657824</v>
+        <v>0.9384021380649156</v>
       </c>
       <c r="D18">
-        <v>1.028903487495892</v>
+        <v>0.9495286053607266</v>
       </c>
       <c r="E18">
-        <v>1.034700575159188</v>
+        <v>0.9576506701445335</v>
       </c>
       <c r="F18">
-        <v>1.042077855533128</v>
+        <v>0.9559921783832667</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.032178568048327</v>
+        <v>0.9680127013520219</v>
       </c>
       <c r="K18">
-        <v>1.032252011703005</v>
+        <v>0.9642793830067752</v>
       </c>
       <c r="L18">
-        <v>1.038028984345274</v>
+        <v>0.9722427684921989</v>
       </c>
       <c r="M18">
-        <v>1.045381022494943</v>
+        <v>0.9706163912141509</v>
       </c>
       <c r="N18">
-        <v>1.033644380007492</v>
+        <v>0.9693873904205504</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.026133734307175</v>
+        <v>0.9391207685014757</v>
       </c>
       <c r="D19">
-        <v>1.029021352364181</v>
+        <v>0.9501772935606282</v>
       </c>
       <c r="E19">
-        <v>1.034814948799851</v>
+        <v>0.958279952315532</v>
       </c>
       <c r="F19">
-        <v>1.042206776794718</v>
+        <v>0.9566947161606913</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.032275253207596</v>
+        <v>0.9685493735408519</v>
       </c>
       <c r="K19">
-        <v>1.032355048667241</v>
+        <v>0.9648457496030581</v>
       </c>
       <c r="L19">
-        <v>1.038128639072815</v>
+        <v>0.9727912465681939</v>
       </c>
       <c r="M19">
-        <v>1.04549529707875</v>
+        <v>0.971236483819213</v>
       </c>
       <c r="N19">
-        <v>1.033741202470777</v>
+        <v>0.9699248247454461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.025575587375707</v>
+        <v>0.9358869341500691</v>
       </c>
       <c r="D20">
-        <v>1.028494143056313</v>
+        <v>0.9472590991397887</v>
       </c>
       <c r="E20">
-        <v>1.03430335055181</v>
+        <v>0.9554491413184301</v>
       </c>
       <c r="F20">
-        <v>1.041630134861107</v>
+        <v>0.9535343674961073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.031842714632578</v>
+        <v>0.966134429219982</v>
       </c>
       <c r="K20">
-        <v>1.031894116161544</v>
+        <v>0.9622973766536168</v>
       </c>
       <c r="L20">
-        <v>1.03768282899494</v>
+        <v>0.9703233691730178</v>
       </c>
       <c r="M20">
-        <v>1.044984123545516</v>
+        <v>0.9684466171678664</v>
       </c>
       <c r="N20">
-        <v>1.03330804964137</v>
+        <v>0.9675064509266423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.023758825949248</v>
+        <v>0.9250009633885947</v>
       </c>
       <c r="D21">
-        <v>1.026778513706073</v>
+        <v>0.9374527702997977</v>
       </c>
       <c r="E21">
-        <v>1.032638431564003</v>
+        <v>0.9459381258444129</v>
       </c>
       <c r="F21">
-        <v>1.039754039610723</v>
+        <v>0.9429158260767798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.030433998302629</v>
+        <v>0.9580072372726804</v>
       </c>
       <c r="K21">
-        <v>1.030393312021792</v>
+        <v>0.9537246021969358</v>
       </c>
       <c r="L21">
-        <v>1.036231125199006</v>
+        <v>0.9620215856674963</v>
       </c>
       <c r="M21">
-        <v>1.043320262487956</v>
+        <v>0.9590658627588469</v>
       </c>
       <c r="N21">
-        <v>1.031897332772651</v>
+        <v>0.9593677174345735</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.022614830413416</v>
+        <v>0.9178412973800728</v>
       </c>
       <c r="D22">
-        <v>1.025698534600439</v>
+        <v>0.9310177229626929</v>
       </c>
       <c r="E22">
-        <v>1.031590305474058</v>
+        <v>0.9396983966336183</v>
       </c>
       <c r="F22">
-        <v>1.038573351184445</v>
+        <v>0.9359487620560913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.029546326963721</v>
+        <v>0.9526647144021596</v>
       </c>
       <c r="K22">
-        <v>1.029447910689423</v>
+        <v>0.9480918651771421</v>
       </c>
       <c r="L22">
-        <v>1.03531654770955</v>
+        <v>0.9565671885628249</v>
       </c>
       <c r="M22">
-        <v>1.042272551957321</v>
+        <v>0.9529056291156182</v>
       </c>
       <c r="N22">
-        <v>1.031008400838624</v>
+        <v>0.9540176075687806</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.023221451602037</v>
+        <v>0.9216687357341419</v>
       </c>
       <c r="D23">
-        <v>1.026271178097185</v>
+        <v>0.934456345043512</v>
       </c>
       <c r="E23">
-        <v>1.032146065846889</v>
+        <v>0.9430324894552176</v>
       </c>
       <c r="F23">
-        <v>1.039199365696136</v>
+        <v>0.9396715957714884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.030017086655981</v>
+        <v>0.9555204153155367</v>
       </c>
       <c r="K23">
-        <v>1.02994925823704</v>
+        <v>0.95110243887853</v>
       </c>
       <c r="L23">
-        <v>1.035801559348376</v>
+        <v>0.9594824079514643</v>
       </c>
       <c r="M23">
-        <v>1.042828115832002</v>
+        <v>0.9561978234963829</v>
       </c>
       <c r="N23">
-        <v>1.031479829063643</v>
+        <v>0.9568773639050082</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.025606017250856</v>
+        <v>0.9360645296886212</v>
       </c>
       <c r="D24">
-        <v>1.02852288461791</v>
+        <v>0.9474193002588992</v>
       </c>
       <c r="E24">
-        <v>1.034331241397905</v>
+        <v>0.9556045397007413</v>
       </c>
       <c r="F24">
-        <v>1.041661569816516</v>
+        <v>0.9537078561288636</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.031866299459806</v>
+        <v>0.9662670473241293</v>
       </c>
       <c r="K24">
-        <v>1.03191924775334</v>
+        <v>0.9624373093825274</v>
       </c>
       <c r="L24">
-        <v>1.037707136583794</v>
+        <v>0.9704588813874366</v>
       </c>
       <c r="M24">
-        <v>1.045011992454706</v>
+        <v>0.9685997941415474</v>
       </c>
       <c r="N24">
-        <v>1.033331667961758</v>
+        <v>0.967639257363709</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.02836605372284</v>
+        <v>0.9515804956230312</v>
       </c>
       <c r="D25">
-        <v>1.031130566094369</v>
+        <v>0.9614424250668624</v>
       </c>
       <c r="E25">
-        <v>1.036861570325309</v>
+        <v>0.9692096372950799</v>
       </c>
       <c r="F25">
-        <v>1.044514348941243</v>
+        <v>0.9688972371378636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.034003988974581</v>
+        <v>0.9778549552751381</v>
       </c>
       <c r="K25">
-        <v>1.034197842754593</v>
+        <v>0.9746703194745341</v>
       </c>
       <c r="L25">
-        <v>1.03991076712819</v>
+        <v>0.9823055112767588</v>
       </c>
       <c r="M25">
-        <v>1.047539741011015</v>
+        <v>0.9819983683393273</v>
       </c>
       <c r="N25">
-        <v>1.03547239324084</v>
+        <v>0.9792436214731599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9631615364522828</v>
+        <v>0.9856954349030183</v>
       </c>
       <c r="D2">
-        <v>0.9719435915918979</v>
+        <v>1.000316531826652</v>
       </c>
       <c r="E2">
-        <v>0.9794004036677774</v>
+        <v>1.002663626048786</v>
       </c>
       <c r="F2">
-        <v>0.9802770052120401</v>
+        <v>1.014081489568961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.045224098310553</v>
+      </c>
       <c r="J2">
-        <v>0.9865028204489646</v>
+        <v>1.008312576332992</v>
       </c>
       <c r="K2">
-        <v>0.9838081472987847</v>
+        <v>1.011771458618864</v>
       </c>
       <c r="L2">
-        <v>0.9911543844429522</v>
+        <v>1.014085976644535</v>
       </c>
       <c r="M2">
-        <v>0.9920181273821044</v>
+        <v>1.025348071671731</v>
       </c>
       <c r="N2">
-        <v>0.9879037676074571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003930162347349</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028633589405761</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.019393068326057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9711759747466076</v>
+        <v>0.9920174522635224</v>
       </c>
       <c r="D3">
-        <v>0.9792278768391833</v>
+        <v>1.005231282686194</v>
       </c>
       <c r="E3">
-        <v>0.986470402859938</v>
+        <v>1.007829219105208</v>
       </c>
       <c r="F3">
-        <v>0.9881742511949478</v>
+        <v>1.018756316071342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
       <c r="J3">
-        <v>0.9924844914772605</v>
+        <v>1.012728120615624</v>
       </c>
       <c r="K3">
-        <v>0.9901336261915783</v>
+        <v>1.015797663015821</v>
       </c>
       <c r="L3">
-        <v>0.9972793753379293</v>
+        <v>1.018362894211759</v>
       </c>
       <c r="M3">
-        <v>0.9989607148312811</v>
+        <v>1.029154701873058</v>
       </c>
       <c r="N3">
-        <v>0.9938939332947205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005743027487697</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031646326122207</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.022237371433776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9761978668671738</v>
+        <v>0.9960013307481954</v>
       </c>
       <c r="D4">
-        <v>0.9837994253372836</v>
+        <v>1.008335015362452</v>
       </c>
       <c r="E4">
-        <v>0.9909078031091718</v>
+        <v>1.01108969313895</v>
       </c>
       <c r="F4">
-        <v>0.9931322457506161</v>
+        <v>1.021712511945815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
       <c r="J4">
-        <v>0.9962306730213669</v>
+        <v>1.015507878945039</v>
       </c>
       <c r="K4">
-        <v>0.9940973912332409</v>
+        <v>1.018333874284771</v>
       </c>
       <c r="L4">
-        <v>1.001117215910692</v>
+        <v>1.021056092780696</v>
       </c>
       <c r="M4">
-        <v>1.003314271384055</v>
+        <v>1.03155576261568</v>
       </c>
       <c r="N4">
-        <v>0.9976454348463127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006879830371928</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033546625855599</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.024031698925529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9782722738745815</v>
+        <v>0.9976635289128316</v>
       </c>
       <c r="D5">
-        <v>0.9856894282036772</v>
+        <v>1.00963515871664</v>
       </c>
       <c r="E5">
-        <v>0.9927424072712407</v>
+        <v>1.012452108758175</v>
       </c>
       <c r="F5">
-        <v>0.9951824565088809</v>
+        <v>1.022947803548836</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
       <c r="J5">
-        <v>0.9977775629871789</v>
+        <v>1.016670211542652</v>
       </c>
       <c r="K5">
-        <v>0.9957346703572796</v>
+        <v>1.01939695118287</v>
       </c>
       <c r="L5">
-        <v>1.002702400082974</v>
+        <v>1.022181644357143</v>
       </c>
       <c r="M5">
-        <v>1.005113305250112</v>
+        <v>1.032559077844596</v>
       </c>
       <c r="N5">
-        <v>0.9991945215733069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.007355500405544</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034340689899</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.02479074098464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9786184855027495</v>
+        <v>0.9979555164542755</v>
       </c>
       <c r="D6">
-        <v>0.9860049559326977</v>
+        <v>1.009868042667708</v>
       </c>
       <c r="E6">
-        <v>0.993048689550705</v>
+        <v>1.012692535239323</v>
       </c>
       <c r="F6">
-        <v>0.9955247566788464</v>
+        <v>1.023164313576107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.04537027023839</v>
+      </c>
       <c r="J6">
-        <v>0.9980356987763339</v>
+        <v>1.016878293164064</v>
       </c>
       <c r="K6">
-        <v>0.9960079217387056</v>
+        <v>1.01958994786782</v>
       </c>
       <c r="L6">
-        <v>1.002966952135628</v>
+        <v>1.022382254848186</v>
       </c>
       <c r="M6">
-        <v>1.005413596547619</v>
+        <v>1.032736612693237</v>
       </c>
       <c r="N6">
-        <v>0.9994530239448913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.007442356347047</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034481198028592</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.024936137157739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9762257266960427</v>
+        <v>0.996062613356145</v>
       </c>
       <c r="D7">
-        <v>0.9838248022811155</v>
+        <v>1.008394817257301</v>
       </c>
       <c r="E7">
-        <v>0.9909324359970545</v>
+        <v>1.011142755588537</v>
       </c>
       <c r="F7">
-        <v>0.9931597720276008</v>
+        <v>1.021756365360769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
       <c r="J7">
-        <v>0.9962514504645796</v>
+        <v>1.015561449190561</v>
       </c>
       <c r="K7">
-        <v>0.9941193806080192</v>
+        <v>1.018390001387592</v>
       </c>
       <c r="L7">
-        <v>1.001138505958934</v>
+        <v>1.021105575187313</v>
       </c>
       <c r="M7">
-        <v>1.003338430231411</v>
+        <v>1.031596198427363</v>
       </c>
       <c r="N7">
-        <v>0.997666241795878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006906627345526</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033578628401351</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.024091932564291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9659055656919449</v>
+        <v>0.9879060910718616</v>
       </c>
       <c r="D8">
-        <v>0.9744360455692541</v>
+        <v>1.002048830490443</v>
       </c>
       <c r="E8">
-        <v>0.9818194527766109</v>
+        <v>1.004472669636967</v>
       </c>
       <c r="F8">
-        <v>0.982978836057618</v>
+        <v>1.01571197287186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
       <c r="J8">
-        <v>0.9885512211688459</v>
+        <v>1.009871024575562</v>
       </c>
       <c r="K8">
-        <v>0.9859738049920335</v>
+        <v>1.013201120405261</v>
       </c>
       <c r="L8">
-        <v>0.9932514559177915</v>
+        <v>1.01559239471201</v>
       </c>
       <c r="M8">
-        <v>0.9943944152235286</v>
+        <v>1.026683239708853</v>
       </c>
       <c r="N8">
-        <v>0.9899550772913156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004577443085956</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029690302358634</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.020427505538829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9463396322391039</v>
+        <v>0.9725869997549215</v>
       </c>
       <c r="D9">
-        <v>0.9566998830665292</v>
+        <v>0.9901681648106356</v>
       </c>
       <c r="E9">
-        <v>0.9646079718147791</v>
+        <v>0.991987753631419</v>
       </c>
       <c r="F9">
-        <v>0.9637595051679517</v>
+        <v>1.004450711202769</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.044923609578788</v>
+      </c>
       <c r="J9">
-        <v>0.9739407552041981</v>
+        <v>0.9991463566119991</v>
       </c>
       <c r="K9">
-        <v>0.9705368437783466</v>
+        <v>1.003422796556604</v>
       </c>
       <c r="L9">
-        <v>0.9783026038021801</v>
+        <v>1.005212175435954</v>
       </c>
       <c r="M9">
-        <v>0.9774692625140259</v>
+        <v>1.017471989094379</v>
       </c>
       <c r="N9">
-        <v>0.975323862789154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.000145253886491</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.022400064866777</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.013509878591083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9321671191486489</v>
+        <v>0.9619212330397036</v>
       </c>
       <c r="D10">
-        <v>0.9439052283984567</v>
+        <v>0.9819661234281777</v>
       </c>
       <c r="E10">
-        <v>0.9521959724821136</v>
+        <v>0.9833919895763977</v>
       </c>
       <c r="F10">
-        <v>0.949902468492827</v>
+        <v>0.9967735961903552</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.044587919160615</v>
+      </c>
       <c r="J10">
-        <v>0.9633568714629845</v>
+        <v>0.9917315710675986</v>
       </c>
       <c r="K10">
-        <v>0.9593669516657006</v>
+        <v>0.9966688021887965</v>
       </c>
       <c r="L10">
-        <v>0.9674855337079329</v>
+        <v>0.9980677240725375</v>
       </c>
       <c r="M10">
-        <v>0.9652392586748408</v>
+        <v>1.011201349732166</v>
       </c>
       <c r="N10">
-        <v>0.9647249487190394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9970859975385228</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017489909671055</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.008751418001967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9257083297708975</v>
+        <v>0.9590109727067424</v>
       </c>
       <c r="D11">
-        <v>0.9380891751369046</v>
+        <v>0.9799310107212131</v>
       </c>
       <c r="E11">
-        <v>0.9465552829124273</v>
+        <v>0.9815323920374222</v>
       </c>
       <c r="F11">
-        <v>0.9436048811429574</v>
+        <v>0.9954786804757155</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.0444161704399</v>
+      </c>
       <c r="J11">
-        <v>0.9585352061905973</v>
+        <v>0.9901942710263797</v>
       </c>
       <c r="K11">
-        <v>0.954281363283336</v>
+        <v>0.9952415894953753</v>
       </c>
       <c r="L11">
-        <v>0.9625607335816184</v>
+        <v>0.9968111912310107</v>
       </c>
       <c r="M11">
-        <v>0.9596749032796199</v>
+        <v>1.010486368947169</v>
       </c>
       <c r="N11">
-        <v>0.9598964361289128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9966527434499818</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.017371171903221</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.007776318485441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9232553553518175</v>
+        <v>0.9586498011808232</v>
       </c>
       <c r="D12">
-        <v>0.935882761195508</v>
+        <v>0.9797990374318422</v>
       </c>
       <c r="E12">
-        <v>0.9444156526072943</v>
+        <v>0.9816069626703279</v>
       </c>
       <c r="F12">
-        <v>0.9412159587873066</v>
+        <v>0.9958019758604695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.044348406001364</v>
+      </c>
       <c r="J12">
-        <v>0.9567044346310538</v>
+        <v>0.9903134661247704</v>
       </c>
       <c r="K12">
-        <v>0.9523508405516729</v>
+        <v>0.9953237665273338</v>
       </c>
       <c r="L12">
-        <v>0.9606912933786391</v>
+        <v>0.9970952365822761</v>
       </c>
       <c r="M12">
-        <v>0.9575632158548871</v>
+        <v>1.011010047765745</v>
       </c>
       <c r="N12">
-        <v>0.9580630646637625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9968717934403611</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.01811893651574</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.007834424499087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9237840636994165</v>
+        <v>0.9602768266574518</v>
       </c>
       <c r="D13">
-        <v>0.9363582116088388</v>
+        <v>0.9811730365133183</v>
       </c>
       <c r="E13">
-        <v>0.9448766997751162</v>
+        <v>0.9832182379310469</v>
       </c>
       <c r="F13">
-        <v>0.9417307301876374</v>
+        <v>0.9974372662261495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.044363121405786</v>
+      </c>
       <c r="J13">
-        <v>0.9570990116155864</v>
+        <v>0.9917637894897132</v>
       </c>
       <c r="K13">
-        <v>0.9527668956255859</v>
+        <v>0.9966247635555786</v>
       </c>
       <c r="L13">
-        <v>0.9610941817977681</v>
+        <v>0.9986290289024313</v>
       </c>
       <c r="M13">
-        <v>0.958018288515467</v>
+        <v>1.012569529859847</v>
       </c>
       <c r="N13">
-        <v>0.9584582019928718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9976324949747989</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.019633738282447</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.008751752823488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9255067005831326</v>
+        <v>0.9623072241457293</v>
       </c>
       <c r="D14">
-        <v>0.9379077614857644</v>
+        <v>0.9828120868355481</v>
       </c>
       <c r="E14">
-        <v>0.9463793548126961</v>
+        <v>0.9850324575137046</v>
       </c>
       <c r="F14">
-        <v>0.9434084582756619</v>
+        <v>0.9991668370901402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.044410650012188</v>
+      </c>
       <c r="J14">
-        <v>0.9583847106116138</v>
+        <v>0.9933747468351801</v>
       </c>
       <c r="K14">
-        <v>0.9541226584960694</v>
+        <v>0.9980829934304571</v>
       </c>
       <c r="L14">
-        <v>0.9624070491938961</v>
+        <v>1.000259617327527</v>
       </c>
       <c r="M14">
-        <v>0.9595012935936221</v>
+        <v>1.014121472279006</v>
       </c>
       <c r="N14">
-        <v>0.9597457268289448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9984078531383953</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.021036434380244</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.009784316897814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.9265607527685431</v>
+        <v>0.9632490772248077</v>
       </c>
       <c r="D15">
-        <v>0.9388562345368521</v>
+        <v>0.983555290789267</v>
       </c>
       <c r="E15">
-        <v>0.9472991588060797</v>
+        <v>0.9858272990231777</v>
       </c>
       <c r="F15">
-        <v>0.9444354096495755</v>
+        <v>0.9998987017709978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.044439407833738</v>
+      </c>
       <c r="J15">
-        <v>0.9591714719388866</v>
+        <v>0.9940739916895825</v>
       </c>
       <c r="K15">
-        <v>0.9549523546228588</v>
+        <v>0.9987204449991638</v>
       </c>
       <c r="L15">
-        <v>0.9632105010937999</v>
+        <v>1.000948088904154</v>
       </c>
       <c r="M15">
-        <v>0.9604089347933369</v>
+        <v>1.014750590450071</v>
       </c>
       <c r="N15">
-        <v>0.9605336054475456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9987219599927214</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02157171261737</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.010241122099093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.932588532283142</v>
+        <v>0.9674454666041932</v>
       </c>
       <c r="D16">
-        <v>0.9442850295037177</v>
+        <v>0.986752596476338</v>
       </c>
       <c r="E16">
-        <v>0.952564354769054</v>
+        <v>0.989147294891684</v>
       </c>
       <c r="F16">
-        <v>0.9503137403626685</v>
+        <v>1.002856418625835</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.044598761177637</v>
+      </c>
       <c r="J16">
-        <v>0.9636715180766672</v>
+        <v>0.9969318696515544</v>
       </c>
       <c r="K16">
-        <v>0.9596988840509043</v>
+        <v>1.00132783361024</v>
       </c>
       <c r="L16">
-        <v>0.9678069765796532</v>
+        <v>1.003678039401307</v>
       </c>
       <c r="M16">
-        <v>0.965602519649539</v>
+        <v>1.01713776364546</v>
       </c>
       <c r="N16">
-        <v>0.9650400421670041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9998666542135455</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023419283045126</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.01208801456804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9362797602781083</v>
+        <v>0.9696057792514038</v>
       </c>
       <c r="D17">
-        <v>0.9476134596778877</v>
+        <v>0.9883531439688055</v>
       </c>
       <c r="E17">
-        <v>0.9557928792196211</v>
+        <v>0.9907492080599895</v>
       </c>
       <c r="F17">
-        <v>0.9539181205767998</v>
+        <v>1.004218464776861</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.044691650831722</v>
+      </c>
       <c r="J17">
-        <v>0.9664277700794962</v>
+        <v>0.9982842379456488</v>
       </c>
       <c r="K17">
-        <v>0.9626068988463635</v>
+        <v>1.002568513730703</v>
       </c>
       <c r="L17">
-        <v>0.9706231135535903</v>
+        <v>1.004921404941184</v>
       </c>
       <c r="M17">
-        <v>0.9687854372895593</v>
+        <v>1.018152931112334</v>
       </c>
       <c r="N17">
-        <v>0.9678002083638237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.000340015840337</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.024090945659486</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.012967937258928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9384021380649156</v>
+        <v>0.9701767900909706</v>
       </c>
       <c r="D18">
-        <v>0.9495286053607266</v>
+        <v>0.9886826109561614</v>
       </c>
       <c r="E18">
-        <v>0.9576506701445335</v>
+        <v>0.9909638627934867</v>
       </c>
       <c r="F18">
-        <v>0.9559921783832667</v>
+        <v>1.004254871106115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.044743285667331</v>
+      </c>
       <c r="J18">
-        <v>0.9680127013520219</v>
+        <v>0.9984158355737477</v>
       </c>
       <c r="K18">
-        <v>0.9642793830067752</v>
+        <v>1.002699599303366</v>
       </c>
       <c r="L18">
-        <v>0.9722427684921989</v>
+        <v>1.004940416221342</v>
       </c>
       <c r="M18">
-        <v>0.9706163912141509</v>
+        <v>1.018000561897527</v>
       </c>
       <c r="N18">
-        <v>0.9693873904205504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.000256406910938</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023729206510359</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.013048614233237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9391207685014757</v>
+        <v>0.9694211747748981</v>
       </c>
       <c r="D19">
-        <v>0.9501772935606282</v>
+        <v>0.9879737669947335</v>
       </c>
       <c r="E19">
-        <v>0.958279952315532</v>
+        <v>0.9900201104251646</v>
       </c>
       <c r="F19">
-        <v>0.9566947161606913</v>
+        <v>1.003157653810018</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.044760460044801</v>
+      </c>
       <c r="J19">
-        <v>0.9685493735408519</v>
+        <v>0.9975496368319519</v>
       </c>
       <c r="K19">
-        <v>0.9648457496030581</v>
+        <v>1.001937691170625</v>
       </c>
       <c r="L19">
-        <v>0.9727912465681939</v>
+        <v>1.00394788054864</v>
       </c>
       <c r="M19">
-        <v>0.971236483819213</v>
+        <v>1.016857851637115</v>
       </c>
       <c r="N19">
-        <v>0.9699248247454461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9997394250171336</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.022494311696644</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.012516493402578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9358869341500691</v>
+        <v>0.9648325456190761</v>
       </c>
       <c r="D20">
-        <v>0.9472590991397887</v>
+        <v>0.9842351397987842</v>
       </c>
       <c r="E20">
-        <v>0.9554491413184301</v>
+        <v>0.9857483163777689</v>
       </c>
       <c r="F20">
-        <v>0.9535343674961073</v>
+        <v>0.998866629806927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.044681948034609</v>
+      </c>
       <c r="J20">
-        <v>0.966134429219982</v>
+        <v>0.9937898173152505</v>
       </c>
       <c r="K20">
-        <v>0.9622973766536168</v>
+        <v>0.9985609776791612</v>
       </c>
       <c r="L20">
-        <v>0.9703233691730178</v>
+        <v>1.000046480665368</v>
       </c>
       <c r="M20">
-        <v>0.9684466171678664</v>
+        <v>1.01292943748181</v>
       </c>
       <c r="N20">
-        <v>0.9675064509266423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9979530864768559</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.018846723604752</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.010132962833988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9250009633885947</v>
+        <v>0.9563670482752918</v>
       </c>
       <c r="D21">
-        <v>0.9374527702997977</v>
+        <v>0.9777032537232949</v>
       </c>
       <c r="E21">
-        <v>0.9459381258444129</v>
+        <v>0.9788511281468203</v>
       </c>
       <c r="F21">
-        <v>0.9429158260767798</v>
+        <v>0.9926463431379001</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.044396763635349</v>
+      </c>
       <c r="J21">
-        <v>0.9580072372726804</v>
+        <v>0.9878095171625165</v>
       </c>
       <c r="K21">
-        <v>0.9537246021969358</v>
+        <v>0.9931197259622876</v>
       </c>
       <c r="L21">
-        <v>0.9620215856674963</v>
+        <v>0.9942445639166022</v>
       </c>
       <c r="M21">
-        <v>0.9590658627588469</v>
+        <v>1.007768385048342</v>
       </c>
       <c r="N21">
-        <v>0.9593677174345735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.995443337253804</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.014720069312847</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.006288925376797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9178412973800728</v>
+        <v>0.9509211111427459</v>
       </c>
       <c r="D22">
-        <v>0.9310177229626929</v>
+        <v>0.9735104168302046</v>
       </c>
       <c r="E22">
-        <v>0.9396983966336183</v>
+        <v>0.9744492805806058</v>
       </c>
       <c r="F22">
-        <v>0.9359487620560913</v>
+        <v>0.9887128599357212</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.044194488544656</v>
+      </c>
       <c r="J22">
-        <v>0.9526647144021596</v>
+        <v>0.9839774796043445</v>
       </c>
       <c r="K22">
-        <v>0.9480918651771421</v>
+        <v>0.9896255580676643</v>
       </c>
       <c r="L22">
-        <v>0.9565671885628249</v>
+        <v>0.9905444829662133</v>
       </c>
       <c r="M22">
-        <v>0.9529056291156182</v>
+        <v>1.00451128313948</v>
       </c>
       <c r="N22">
-        <v>0.9540176075687806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9938362682395665</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.012142189728501</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.003804178473255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9216687357341419</v>
+        <v>0.9537797459947566</v>
       </c>
       <c r="D23">
-        <v>0.934456345043512</v>
+        <v>0.975698083337008</v>
       </c>
       <c r="E23">
-        <v>0.9430324894552176</v>
+        <v>0.9767547446748341</v>
       </c>
       <c r="F23">
-        <v>0.9396715957714884</v>
+        <v>0.9907768050820439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.044303897290665</v>
+      </c>
       <c r="J23">
-        <v>0.9555204153155367</v>
+        <v>0.9859774288552802</v>
       </c>
       <c r="K23">
-        <v>0.95110243887853</v>
+        <v>0.9914424588532121</v>
       </c>
       <c r="L23">
-        <v>0.9594824079514643</v>
+        <v>0.9924773369719725</v>
       </c>
       <c r="M23">
-        <v>0.9561978234963829</v>
+        <v>1.006216110779912</v>
       </c>
       <c r="N23">
-        <v>0.9568773639050082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9946694087108259</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.013491501058762</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.00507886680808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9360645296886212</v>
+        <v>0.9647307082006226</v>
       </c>
       <c r="D24">
-        <v>0.9474193002588992</v>
+        <v>0.9841219173675579</v>
       </c>
       <c r="E24">
-        <v>0.9556045397007413</v>
+        <v>0.9856156424974043</v>
       </c>
       <c r="F24">
-        <v>0.9537078561288636</v>
+        <v>0.9987173429095449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.04468634017905</v>
+      </c>
       <c r="J24">
-        <v>0.9662670473241293</v>
+        <v>0.9936574347004791</v>
       </c>
       <c r="K24">
-        <v>0.9624373093825274</v>
+        <v>0.9984337281315923</v>
       </c>
       <c r="L24">
-        <v>0.9704588813874366</v>
+        <v>0.9999001619214376</v>
       </c>
       <c r="M24">
-        <v>0.9685997941415474</v>
+        <v>1.012767020948014</v>
       </c>
       <c r="N24">
-        <v>0.967639257363709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9978725544246333</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.018676291024487</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.010014599626391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9515804956230312</v>
+        <v>0.9767310076453652</v>
       </c>
       <c r="D25">
-        <v>0.9614424250668624</v>
+        <v>0.9933943607080865</v>
       </c>
       <c r="E25">
-        <v>0.9692096372950799</v>
+        <v>0.995364472732986</v>
       </c>
       <c r="F25">
-        <v>0.9688972371378636</v>
+        <v>1.00748371087876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.045030265302785</v>
+      </c>
       <c r="J25">
-        <v>0.9778549552751381</v>
+        <v>1.002067668598619</v>
       </c>
       <c r="K25">
-        <v>0.9746703194745341</v>
+        <v>1.006096093595589</v>
       </c>
       <c r="L25">
-        <v>0.9823055112767588</v>
+        <v>1.008035178053489</v>
       </c>
       <c r="M25">
-        <v>0.9819983683393273</v>
+        <v>1.019966952174841</v>
       </c>
       <c r="N25">
-        <v>0.9792436214731599</v>
+        <v>1.00136511126139</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024374709247695</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.015429661137879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9856954349030183</v>
+        <v>0.9901555522807353</v>
       </c>
       <c r="D2">
-        <v>1.000316531826652</v>
+        <v>1.004628397977327</v>
       </c>
       <c r="E2">
-        <v>1.002663626048786</v>
+        <v>1.00655993791676</v>
       </c>
       <c r="F2">
-        <v>1.014081489568961</v>
+        <v>1.017155831069343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.008312576332992</v>
+        <v>1.012634749582911</v>
       </c>
       <c r="K2">
-        <v>1.011771458618864</v>
+        <v>1.016023626282946</v>
       </c>
       <c r="L2">
-        <v>1.014085976644535</v>
+        <v>1.017928632686833</v>
       </c>
       <c r="M2">
-        <v>1.025348071671731</v>
+        <v>1.028381221948896</v>
       </c>
       <c r="N2">
-        <v>1.003930162347349</v>
+        <v>1.008903484171047</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028633589405761</v>
+        <v>1.031034160711496</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.019393068326057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.022408857711083</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01531534849533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9920174522635224</v>
+        <v>0.9956034225724647</v>
       </c>
       <c r="D3">
-        <v>1.005231282686194</v>
+        <v>1.008620446386467</v>
       </c>
       <c r="E3">
-        <v>1.007829219105208</v>
+        <v>1.010979063640083</v>
       </c>
       <c r="F3">
-        <v>1.018756316071342</v>
+        <v>1.021237461943137</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.012728120615624</v>
+        <v>1.01621466454234</v>
       </c>
       <c r="K3">
-        <v>1.015797663015821</v>
+        <v>1.019144202522759</v>
       </c>
       <c r="L3">
-        <v>1.018362894211759</v>
+        <v>1.021473366501411</v>
       </c>
       <c r="M3">
-        <v>1.029154701873058</v>
+        <v>1.031605629641413</v>
       </c>
       <c r="N3">
-        <v>1.005743027487697</v>
+        <v>1.010047740186685</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031646326122207</v>
+        <v>1.033586092647475</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.022237371433776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.024612462657396</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016174179624926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9960013307481954</v>
+        <v>0.9990497581322537</v>
       </c>
       <c r="D4">
-        <v>1.008335015362452</v>
+        <v>1.011152040572468</v>
       </c>
       <c r="E4">
-        <v>1.01108969313895</v>
+        <v>1.01378032322786</v>
       </c>
       <c r="F4">
-        <v>1.021712511945815</v>
+        <v>1.023828919210129</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.015507878945039</v>
+        <v>1.018477802467524</v>
       </c>
       <c r="K4">
-        <v>1.018333874284771</v>
+        <v>1.021117708087003</v>
       </c>
       <c r="L4">
-        <v>1.021056092780696</v>
+        <v>1.02371522892094</v>
       </c>
       <c r="M4">
-        <v>1.03155576261568</v>
+        <v>1.033648011253259</v>
       </c>
       <c r="N4">
-        <v>1.006879830371928</v>
+        <v>1.01076875432739</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033546625855599</v>
+        <v>1.035202514602532</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.024031698925529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.026008948467104</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.016713055093105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9976635289128316</v>
+        <v>1.000489644459608</v>
       </c>
       <c r="D5">
-        <v>1.00963515871664</v>
+        <v>1.012214726140232</v>
       </c>
       <c r="E5">
-        <v>1.012452108758175</v>
+        <v>1.014952722160531</v>
       </c>
       <c r="F5">
-        <v>1.022947803548836</v>
+        <v>1.024913343132275</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.016670211542652</v>
+        <v>1.019425833500845</v>
       </c>
       <c r="K5">
-        <v>1.01939695118287</v>
+        <v>1.021946971458197</v>
       </c>
       <c r="L5">
-        <v>1.022181644357143</v>
+        <v>1.024653808235766</v>
       </c>
       <c r="M5">
-        <v>1.032559077844596</v>
+        <v>1.034502801657649</v>
       </c>
       <c r="N5">
-        <v>1.007355500405544</v>
+        <v>1.011071194836412</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034340689899</v>
+        <v>1.035879028592563</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.02479074098464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.026603346148846</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.016939650198857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9979555164542755</v>
+        <v>1.000741477687236</v>
       </c>
       <c r="D6">
-        <v>1.009868042667708</v>
+        <v>1.012404967630036</v>
       </c>
       <c r="E6">
-        <v>1.012692535239323</v>
+        <v>1.015158724005594</v>
       </c>
       <c r="F6">
-        <v>1.023164313576107</v>
+        <v>1.025102545162248</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.016878293164064</v>
+        <v>1.019595139504068</v>
       </c>
       <c r="K6">
-        <v>1.01958994786782</v>
+        <v>1.022097953996729</v>
       </c>
       <c r="L6">
-        <v>1.022382254848186</v>
+        <v>1.024820521446747</v>
       </c>
       <c r="M6">
-        <v>1.032736612693237</v>
+        <v>1.034653434203748</v>
       </c>
       <c r="N6">
-        <v>1.007442356347047</v>
+        <v>1.011126390744392</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034481198028592</v>
+        <v>1.035998244913921</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.024936137157739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026719884837115</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.016982311521123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.996062613356145</v>
+        <v>0.9991132020818437</v>
       </c>
       <c r="D7">
-        <v>1.008394817257301</v>
+        <v>1.011212214073601</v>
       </c>
       <c r="E7">
-        <v>1.011142755588537</v>
+        <v>1.013835878349199</v>
       </c>
       <c r="F7">
-        <v>1.021756365360769</v>
+        <v>1.023874605314439</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.015561449190561</v>
+        <v>1.018533520468137</v>
       </c>
       <c r="K7">
-        <v>1.018390001387592</v>
+        <v>1.021174218428575</v>
       </c>
       <c r="L7">
-        <v>1.021105575187313</v>
+        <v>1.023767189565609</v>
       </c>
       <c r="M7">
-        <v>1.031596198427363</v>
+        <v>1.033690269522607</v>
       </c>
       <c r="N7">
-        <v>1.006906627345526</v>
+        <v>1.010817721965096</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033578628401351</v>
+        <v>1.035235959436789</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.024091932564291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.026071410810467</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.016734292446387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879060910718616</v>
+        <v>0.9920962128072758</v>
       </c>
       <c r="D8">
-        <v>1.002048830490443</v>
+        <v>1.006069914147582</v>
       </c>
       <c r="E8">
-        <v>1.004472669636967</v>
+        <v>1.008141370623336</v>
       </c>
       <c r="F8">
-        <v>1.01571197287186</v>
+        <v>1.018604744168171</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.009871024575562</v>
+        <v>1.013936198085835</v>
       </c>
       <c r="K8">
-        <v>1.013201120405261</v>
+        <v>1.017168287581078</v>
       </c>
       <c r="L8">
-        <v>1.01559239471201</v>
+        <v>1.019212179715824</v>
       </c>
       <c r="M8">
-        <v>1.026683239708853</v>
+        <v>1.029538464290658</v>
       </c>
       <c r="N8">
-        <v>1.004577443085956</v>
+        <v>1.009409832059033</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029690302358634</v>
+        <v>1.031950052070888</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.020427505538829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.023243952738441</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.015642397822329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9725869997549215</v>
+        <v>0.9789941898606533</v>
       </c>
       <c r="D9">
-        <v>0.9901681648106356</v>
+        <v>0.9964960045093459</v>
       </c>
       <c r="E9">
-        <v>0.991987753631419</v>
+        <v>0.9975484378361366</v>
       </c>
       <c r="F9">
-        <v>1.004450711202769</v>
+        <v>1.008848150878612</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9991463566119991</v>
+        <v>1.00531116470234</v>
       </c>
       <c r="K9">
-        <v>1.003422796556604</v>
+        <v>1.00964618857166</v>
       </c>
       <c r="L9">
-        <v>1.005212175435954</v>
+        <v>1.010681415546471</v>
       </c>
       <c r="M9">
-        <v>1.017471989094379</v>
+        <v>1.021799285822372</v>
       </c>
       <c r="N9">
-        <v>1.000145253886491</v>
+        <v>1.006648771357214</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.022400064866777</v>
+        <v>1.025824910351623</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.013509878591083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.017921569739178</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013545726819277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9619212330397036</v>
+        <v>0.9700125250410422</v>
       </c>
       <c r="D10">
-        <v>0.9819661234281777</v>
+        <v>0.9900057271004552</v>
       </c>
       <c r="E10">
-        <v>0.9833919895763977</v>
+        <v>0.9903882222321189</v>
       </c>
       <c r="F10">
-        <v>0.9967735961903552</v>
+        <v>1.002313065282227</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9917315710675986</v>
+        <v>0.9994685871307105</v>
       </c>
       <c r="K10">
-        <v>0.9966688021887965</v>
+        <v>1.004557806712651</v>
       </c>
       <c r="L10">
-        <v>0.9980677240725375</v>
+        <v>1.004933216324412</v>
       </c>
       <c r="M10">
-        <v>1.011201349732166</v>
+        <v>1.016640681833056</v>
       </c>
       <c r="N10">
-        <v>0.9970859975385228</v>
+        <v>1.004907508448631</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017489909671055</v>
+        <v>1.021794624748991</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.008751418001967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.014342578016258</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.012130662939292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9590109727067424</v>
+        <v>0.9675210788919524</v>
       </c>
       <c r="D11">
-        <v>0.9799310107212131</v>
+        <v>0.9884002924758032</v>
       </c>
       <c r="E11">
-        <v>0.9815323920374222</v>
+        <v>0.9888683038493662</v>
       </c>
       <c r="F11">
-        <v>0.9954786804757155</v>
+        <v>1.00128587340579</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9901942710263797</v>
+        <v>0.9983103462380865</v>
       </c>
       <c r="K11">
-        <v>0.9952415894953753</v>
+        <v>1.003544328595836</v>
       </c>
       <c r="L11">
-        <v>0.9968111912310107</v>
+        <v>1.004003245881851</v>
       </c>
       <c r="M11">
-        <v>1.010486368947169</v>
+        <v>1.016183580711473</v>
       </c>
       <c r="N11">
-        <v>0.9966527434499818</v>
+        <v>1.004919779678023</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.017371171903221</v>
+        <v>1.021877604856243</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.007776318485441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.013663075218813</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01197589540134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9586498011808232</v>
+        <v>0.9671368458066584</v>
       </c>
       <c r="D12">
-        <v>0.9797990374318422</v>
+        <v>0.9882567133709775</v>
       </c>
       <c r="E12">
-        <v>0.9816069626703279</v>
+        <v>0.9889053235425967</v>
       </c>
       <c r="F12">
-        <v>0.9958019758604695</v>
+        <v>1.001578931154171</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9903134661247704</v>
+        <v>0.9984002258240584</v>
       </c>
       <c r="K12">
-        <v>0.9953237665273338</v>
+        <v>1.003612408304827</v>
       </c>
       <c r="L12">
-        <v>0.9970952365822761</v>
+        <v>1.004248212188676</v>
       </c>
       <c r="M12">
-        <v>1.011010047765745</v>
+        <v>1.016675943724637</v>
       </c>
       <c r="N12">
-        <v>0.9968717934403611</v>
+        <v>1.005168546227764</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.01811893651574</v>
+        <v>1.022599021325489</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.007834424499087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.013711211395626</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012091378579663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602768266574518</v>
+        <v>0.9683658003173319</v>
       </c>
       <c r="D13">
-        <v>0.9811730365133183</v>
+        <v>0.9892483325430734</v>
       </c>
       <c r="E13">
-        <v>0.9832182379310469</v>
+        <v>0.9901563876434105</v>
       </c>
       <c r="F13">
-        <v>0.9974372662261495</v>
+        <v>1.002929748389617</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.9917637894897132</v>
+        <v>0.9994742810835635</v>
       </c>
       <c r="K13">
-        <v>0.9966247635555786</v>
+        <v>1.004539720373586</v>
       </c>
       <c r="L13">
-        <v>0.9986290289024313</v>
+        <v>1.005429960223632</v>
       </c>
       <c r="M13">
-        <v>1.012569529859847</v>
+        <v>1.017957187420344</v>
       </c>
       <c r="N13">
-        <v>0.9976324949747989</v>
+        <v>1.005586874564445</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.019633738282447</v>
+        <v>1.023892713729307</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.008751752823488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.014364060076183</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.012430867574713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9623072241457293</v>
+        <v>0.9699538576958707</v>
       </c>
       <c r="D14">
-        <v>0.9828120868355481</v>
+        <v>0.9904572578136684</v>
       </c>
       <c r="E14">
-        <v>0.9850324575137046</v>
+        <v>0.991578327724904</v>
       </c>
       <c r="F14">
-        <v>0.9991668370901402</v>
+        <v>1.004349883436423</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9933747468351801</v>
+        <v>1.000669832714365</v>
       </c>
       <c r="K14">
-        <v>0.9980829934304571</v>
+        <v>1.005578616806546</v>
       </c>
       <c r="L14">
-        <v>1.000259617327527</v>
+        <v>1.006678011384848</v>
       </c>
       <c r="M14">
-        <v>1.014121472279006</v>
+        <v>1.019207092771117</v>
       </c>
       <c r="N14">
-        <v>0.9984078531383953</v>
+        <v>1.005958356800231</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.021036434380244</v>
+        <v>1.025056095270676</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.009784316897814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.015100224627294</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01277125902045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9632490772248077</v>
+        <v>0.9707068737151465</v>
       </c>
       <c r="D15">
-        <v>0.983555290789267</v>
+        <v>0.9910149109208553</v>
       </c>
       <c r="E15">
-        <v>0.9858272990231777</v>
+        <v>0.9922082126510737</v>
       </c>
       <c r="F15">
-        <v>0.9998987017709978</v>
+        <v>1.004951494935157</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9940739916895825</v>
+        <v>1.001192363196206</v>
       </c>
       <c r="K15">
-        <v>0.9987204449991638</v>
+        <v>1.006035403234382</v>
       </c>
       <c r="L15">
-        <v>1.000948088904154</v>
+        <v>1.007205827789416</v>
       </c>
       <c r="M15">
-        <v>1.014750590450071</v>
+        <v>1.019709221536893</v>
       </c>
       <c r="N15">
-        <v>0.9987219599927214</v>
+        <v>1.006095164416787</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02157171261737</v>
+        <v>1.025490897768522</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.010241122099093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.015429814531726</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.012909199974066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9674454666041932</v>
+        <v>0.9741720673077716</v>
       </c>
       <c r="D16">
-        <v>0.986752596476338</v>
+        <v>0.9934789145550104</v>
       </c>
       <c r="E16">
-        <v>0.989147294891684</v>
+        <v>0.9949041134396481</v>
       </c>
       <c r="F16">
-        <v>1.002856418625835</v>
+        <v>1.007414634107403</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9969318696515544</v>
+        <v>1.003369064542924</v>
       </c>
       <c r="K16">
-        <v>1.00132783361024</v>
+        <v>1.007929888675456</v>
       </c>
       <c r="L16">
-        <v>1.003678039401307</v>
+        <v>1.009329039007091</v>
       </c>
       <c r="M16">
-        <v>1.01713776364546</v>
+        <v>1.021615004933486</v>
       </c>
       <c r="N16">
-        <v>0.9998666542135455</v>
+        <v>1.006542527188374</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023419283045126</v>
+        <v>1.026958095780047</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.01208801456804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.016772879352972</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013408831850393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9696057792514038</v>
+        <v>0.976018602920888</v>
       </c>
       <c r="D17">
-        <v>0.9883531439688055</v>
+        <v>0.9947552359297163</v>
       </c>
       <c r="E17">
-        <v>0.9907492080599895</v>
+        <v>0.99624637457625</v>
       </c>
       <c r="F17">
-        <v>1.004218464776861</v>
+        <v>1.008569869657431</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9982842379456488</v>
+        <v>1.004430600266023</v>
       </c>
       <c r="K17">
-        <v>1.002568513730703</v>
+        <v>1.008855854064133</v>
       </c>
       <c r="L17">
-        <v>1.004921404941184</v>
+        <v>1.010320540103801</v>
       </c>
       <c r="M17">
-        <v>1.018152931112334</v>
+        <v>1.022429288187911</v>
       </c>
       <c r="N17">
-        <v>1.000340015840337</v>
+        <v>1.006726341209361</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.024090945659486</v>
+        <v>1.027471324455497</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.012967937258928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.017430496095742</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013620023825871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9701767900909706</v>
+        <v>0.9765870552390284</v>
       </c>
       <c r="D18">
-        <v>0.9886826109561614</v>
+        <v>0.9950680573225814</v>
       </c>
       <c r="E18">
-        <v>0.9909638627934867</v>
+        <v>0.9964734755907494</v>
       </c>
       <c r="F18">
-        <v>1.004254871106115</v>
+        <v>1.008614762969412</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9984158355737477</v>
+        <v>1.004564718249265</v>
       </c>
       <c r="K18">
-        <v>1.002699599303366</v>
+        <v>1.00897246905554</v>
       </c>
       <c r="L18">
-        <v>1.004940416221342</v>
+        <v>1.010353360360006</v>
       </c>
       <c r="M18">
-        <v>1.018000561897527</v>
+        <v>1.022286432972036</v>
       </c>
       <c r="N18">
-        <v>1.000256406910938</v>
+        <v>1.006637211661016</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023729206510359</v>
+        <v>1.027117830430689</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.013048614233237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.017499855937409</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.013578736869332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9694211747748981</v>
+        <v>0.9760641110870886</v>
       </c>
       <c r="D19">
-        <v>0.9879737669947335</v>
+        <v>0.9945791577214855</v>
       </c>
       <c r="E19">
-        <v>0.9900201104251646</v>
+        <v>0.9957464059749567</v>
       </c>
       <c r="F19">
-        <v>1.003157653810018</v>
+        <v>1.007688572635418</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.9975496368319519</v>
+        <v>1.003922796428199</v>
       </c>
       <c r="K19">
-        <v>1.001937691170625</v>
+        <v>1.008427072840923</v>
       </c>
       <c r="L19">
-        <v>1.00394788054864</v>
+        <v>1.009574028068086</v>
       </c>
       <c r="M19">
-        <v>1.016857851637115</v>
+        <v>1.021312059398974</v>
       </c>
       <c r="N19">
-        <v>0.9997394250171336</v>
+        <v>1.006317762428154</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.022494311696644</v>
+        <v>1.026017218773252</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.012516493402578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.01712143264834</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.013342052058114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9648325456190761</v>
+        <v>0.9724022652314031</v>
       </c>
       <c r="D20">
-        <v>0.9842351397987842</v>
+        <v>0.9917547272360563</v>
       </c>
       <c r="E20">
-        <v>0.9857483163777689</v>
+        <v>0.9922953050506997</v>
       </c>
       <c r="F20">
-        <v>0.998866629806927</v>
+        <v>1.004049672881897</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9937898173152505</v>
+        <v>1.00104010844922</v>
       </c>
       <c r="K20">
-        <v>0.9985609776791612</v>
+        <v>1.005944125997438</v>
       </c>
       <c r="L20">
-        <v>1.000046480665368</v>
+        <v>1.006474998803756</v>
       </c>
       <c r="M20">
-        <v>1.01292943748181</v>
+        <v>1.018021685490522</v>
       </c>
       <c r="N20">
-        <v>0.9979530864768559</v>
+        <v>1.005312955821382</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.018846723604752</v>
+        <v>1.022876801615912</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.010132962833988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.015370281607479</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.012524117078532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9563670482752918</v>
+        <v>0.9655462035912339</v>
       </c>
       <c r="D21">
-        <v>0.9777032537232949</v>
+        <v>0.9868168187757982</v>
       </c>
       <c r="E21">
-        <v>0.9788511281468203</v>
+        <v>0.9867939697976507</v>
       </c>
       <c r="F21">
-        <v>0.9926463431379001</v>
+        <v>0.9989360576581734</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9878095171625165</v>
+        <v>0.9965585510394196</v>
       </c>
       <c r="K21">
-        <v>0.9931197259622876</v>
+        <v>1.002052330176634</v>
       </c>
       <c r="L21">
-        <v>0.9942445639166022</v>
+        <v>1.002029929407157</v>
       </c>
       <c r="M21">
-        <v>1.007768385048342</v>
+        <v>1.013937614827243</v>
       </c>
       <c r="N21">
-        <v>0.995443337253804</v>
+        <v>1.004321853101772</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.014720069312847</v>
+        <v>1.019602766156164</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.006288925376797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.012622220474698</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.011447550418362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9509211111427459</v>
+        <v>0.9611612484435168</v>
       </c>
       <c r="D22">
-        <v>0.9735104168302046</v>
+        <v>0.9836685053050664</v>
       </c>
       <c r="E22">
-        <v>0.9744492805806058</v>
+        <v>0.9833121366071227</v>
       </c>
       <c r="F22">
-        <v>0.9887128599357212</v>
+        <v>0.9957318539305887</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9839774796043445</v>
+        <v>0.9937060965304719</v>
       </c>
       <c r="K22">
-        <v>0.9896255580676643</v>
+        <v>0.9995705864305474</v>
       </c>
       <c r="L22">
-        <v>0.9905444829662133</v>
+        <v>0.9992215939754999</v>
       </c>
       <c r="M22">
-        <v>1.00451128313948</v>
+        <v>1.01138834047261</v>
       </c>
       <c r="N22">
-        <v>0.9938362682395665</v>
+        <v>1.0036901666574</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.012142189728501</v>
+        <v>1.017585122570712</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.003804178473255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.010852194581678</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.010762023046743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9537797459947566</v>
+        <v>0.9634389974292543</v>
       </c>
       <c r="D23">
-        <v>0.975698083337008</v>
+        <v>0.9852863216111077</v>
       </c>
       <c r="E23">
-        <v>0.9767547446748341</v>
+        <v>0.985111494169983</v>
       </c>
       <c r="F23">
-        <v>0.9907768050820439</v>
+        <v>0.9973951280752119</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9859774288552802</v>
+        <v>0.9951701104815391</v>
       </c>
       <c r="K23">
-        <v>0.9914424588532121</v>
+        <v>1.000835286891216</v>
       </c>
       <c r="L23">
-        <v>0.9924773369719725</v>
+        <v>1.000663977653883</v>
       </c>
       <c r="M23">
-        <v>1.006216110779912</v>
+        <v>1.012704352662418</v>
       </c>
       <c r="N23">
-        <v>0.9946694087108259</v>
+        <v>1.003959826202673</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.013491501058762</v>
+        <v>1.018626691712765</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.00507886680808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.011735518084394</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.011102062967851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9647307082006226</v>
+        <v>0.9723357861627426</v>
       </c>
       <c r="D24">
-        <v>0.9841219173675579</v>
+        <v>0.9916745967915438</v>
       </c>
       <c r="E24">
-        <v>0.9856156424974043</v>
+        <v>0.9921954754486606</v>
       </c>
       <c r="F24">
-        <v>0.9987173429095449</v>
+        <v>1.003926490769395</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.9936574347004791</v>
+        <v>1.000941967436621</v>
       </c>
       <c r="K24">
-        <v>0.9984337281315923</v>
+        <v>1.005849510471965</v>
       </c>
       <c r="L24">
-        <v>0.9999001619214376</v>
+        <v>1.006361047666182</v>
       </c>
       <c r="M24">
-        <v>1.012767020948014</v>
+        <v>1.017885001923441</v>
       </c>
       <c r="N24">
-        <v>0.9978725544246333</v>
+        <v>1.005260303053867</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.018676291024487</v>
+        <v>1.022726945237149</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.010014599626391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.015272466148762</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.012481005569541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9767310076453652</v>
+        <v>0.9824983261061744</v>
       </c>
       <c r="D25">
-        <v>0.9933943607080865</v>
+        <v>0.9990661291284615</v>
       </c>
       <c r="E25">
-        <v>0.995364472732986</v>
+        <v>1.000377637529944</v>
       </c>
       <c r="F25">
-        <v>1.00748371087876</v>
+        <v>1.011445908873895</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.002067668598619</v>
+        <v>1.007629396048589</v>
       </c>
       <c r="K25">
-        <v>1.006096093595589</v>
+        <v>1.011678959558284</v>
       </c>
       <c r="L25">
-        <v>1.008035178053489</v>
+        <v>1.012970093989413</v>
       </c>
       <c r="M25">
-        <v>1.019966952174841</v>
+        <v>1.023869102767901</v>
       </c>
       <c r="N25">
-        <v>1.00136511126139</v>
+        <v>1.007365484899829</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024374709247695</v>
+        <v>1.027463063991309</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.015429661137879</v>
+        <v>1.019391085009085</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014120704955839</v>
       </c>
     </row>
   </sheetData>
